--- a/best_buy/buy.xlsx
+++ b/best_buy/buy.xlsx
@@ -96,7 +96,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="000"/>
+    <numFmt numFmtId="176" formatCode="000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -187,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1"/>
   </cellXfs>
@@ -231,10 +231,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="176" formatCode="000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="000"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -247,21 +247,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:R301" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:R301" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:R301"/>
   <tableColumns count="18">
-    <tableColumn id="1" name="problem" dataDxfId="12"/>
-    <tableColumn id="2" name="W" dataDxfId="11"/>
-    <tableColumn id="3" name="H" dataDxfId="10"/>
-    <tableColumn id="4" name="WxH" dataDxfId="9"/>
-    <tableColumn id="5" name="Area" dataDxfId="8"/>
-    <tableColumn id="6" name="Wall" dataDxfId="7"/>
-    <tableColumn id="7" name="X" dataDxfId="6"/>
-    <tableColumn id="8" name="B" dataDxfId="5"/>
-    <tableColumn id="9" name="L" dataDxfId="4"/>
-    <tableColumn id="10" name="F" dataDxfId="3"/>
-    <tableColumn id="11" name="R" dataDxfId="2"/>
-    <tableColumn id="12" name="C" dataDxfId="1"/>
+    <tableColumn id="1" name="problem" dataDxfId="11"/>
+    <tableColumn id="2" name="W" dataDxfId="10"/>
+    <tableColumn id="3" name="H" dataDxfId="9"/>
+    <tableColumn id="4" name="WxH" dataDxfId="8"/>
+    <tableColumn id="5" name="Area" dataDxfId="7"/>
+    <tableColumn id="6" name="Wall" dataDxfId="6"/>
+    <tableColumn id="7" name="X" dataDxfId="5"/>
+    <tableColumn id="8" name="B" dataDxfId="4"/>
+    <tableColumn id="9" name="L" dataDxfId="3"/>
+    <tableColumn id="10" name="F" dataDxfId="2"/>
+    <tableColumn id="11" name="R" dataDxfId="1"/>
+    <tableColumn id="12" name="C" dataDxfId="0"/>
     <tableColumn id="13" name="buy_B" dataCellStyle="入力"/>
     <tableColumn id="14" name="buy_L" dataCellStyle="入力"/>
     <tableColumn id="15" name="buy_F" dataCellStyle="入力"/>
@@ -565,7 +565,7 @@
   <dimension ref="A1:R301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -679,14 +679,16 @@
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="4">
         <f>1000*M2+300*O2+700*N2+1200*P2+2000*Q2</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
@@ -726,14 +728,16 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="4">
         <f t="shared" ref="R3:R66" si="0">1000*M3+300*O3+700*N3+1200*P3+2000*Q3</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -773,14 +777,16 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -821,13 +827,15 @@
         <v>0</v>
       </c>
       <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -869,12 +877,14 @@
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -917,11 +927,13 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
@@ -965,10 +977,12 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
       <c r="R8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -14848,7 +14862,7 @@
       </c>
       <c r="B2" s="4">
         <f>SUM(テーブル2[subtotal])</f>
-        <v>0</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -14857,12 +14871,13 @@
       </c>
       <c r="B3" s="4">
         <f>B1-B2</f>
-        <v>212154</v>
+        <v>204954</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/best_buy/buy.xlsx
+++ b/best_buy/buy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>X</t>
   </si>
@@ -88,6 +88,10 @@
   </si>
   <si>
     <t>balance</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>base_score</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -196,7 +200,11 @@
     <cellStyle name="入力" xfId="1" builtinId="20"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -247,28 +255,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:R301" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:R301"/>
-  <tableColumns count="18">
-    <tableColumn id="1" name="problem" dataDxfId="11"/>
-    <tableColumn id="2" name="W" dataDxfId="10"/>
-    <tableColumn id="3" name="H" dataDxfId="9"/>
-    <tableColumn id="4" name="WxH" dataDxfId="8"/>
-    <tableColumn id="5" name="Area" dataDxfId="7"/>
-    <tableColumn id="6" name="Wall" dataDxfId="6"/>
-    <tableColumn id="7" name="X" dataDxfId="5"/>
-    <tableColumn id="8" name="B" dataDxfId="4"/>
-    <tableColumn id="9" name="L" dataDxfId="3"/>
-    <tableColumn id="10" name="F" dataDxfId="2"/>
-    <tableColumn id="11" name="R" dataDxfId="1"/>
-    <tableColumn id="12" name="C" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:S301" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:S301"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="problem" dataDxfId="12"/>
+    <tableColumn id="2" name="W" dataDxfId="11"/>
+    <tableColumn id="3" name="H" dataDxfId="10"/>
+    <tableColumn id="4" name="WxH" dataDxfId="9"/>
+    <tableColumn id="5" name="Area" dataDxfId="8"/>
+    <tableColumn id="6" name="Wall" dataDxfId="7"/>
+    <tableColumn id="7" name="X" dataDxfId="6"/>
+    <tableColumn id="8" name="B" dataDxfId="5"/>
+    <tableColumn id="9" name="L" dataDxfId="4"/>
+    <tableColumn id="10" name="F" dataDxfId="3"/>
+    <tableColumn id="11" name="R" dataDxfId="2"/>
+    <tableColumn id="12" name="C" dataDxfId="1"/>
+    <tableColumn id="19" name="base_score" dataDxfId="0">
+      <calculatedColumnFormula>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="13" name="buy_B" dataCellStyle="入力"/>
     <tableColumn id="14" name="buy_L" dataCellStyle="入力"/>
     <tableColumn id="15" name="buy_F" dataCellStyle="入力"/>
     <tableColumn id="16" name="buy_R" dataCellStyle="入力"/>
     <tableColumn id="17" name="buy_C" dataCellStyle="入力"/>
     <tableColumn id="18" name="subtotal" dataCellStyle="計算">
-      <calculatedColumnFormula>1000*M2+300*O2+700*N2+1200*P2+2000*Q2</calculatedColumnFormula>
+      <calculatedColumnFormula>1000*N2+300*P2+700*O2+1200*Q2+2000*R2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -562,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R301"/>
+  <dimension ref="A1:S301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -581,12 +592,13 @@
     <col min="9" max="10" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -624,25 +636,28 @@
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -679,19 +694,23 @@
       <c r="L2" s="1">
         <v>0</v>
       </c>
-      <c r="M2" s="3">
-        <v>1</v>
-      </c>
-      <c r="N2" s="3"/>
+      <c r="M2" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>4585</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
-      <c r="R2" s="4">
-        <f>1000*M2+300*O2+700*N2+1200*P2+2000*Q2</f>
+      <c r="R2" s="3"/>
+      <c r="S2" s="4">
+        <f>1000*N2+300*P2+700*O2+1200*Q2+2000*R2</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -728,19 +747,23 @@
       <c r="L3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="3">
-        <v>1</v>
-      </c>
-      <c r="N3" s="3"/>
+      <c r="M3" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>10819</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="R3" s="4">
-        <f t="shared" ref="R3:R66" si="0">1000*M3+300*O3+700*N3+1200*P3+2000*Q3</f>
+      <c r="R3" s="3"/>
+      <c r="S3" s="4">
+        <f t="shared" ref="S3:S66" si="0">1000*N3+300*P3+700*O3+1200*Q3+2000*R3</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -777,19 +800,23 @@
       <c r="L4" s="1">
         <v>0</v>
       </c>
-      <c r="M4" s="3">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3"/>
+      <c r="M4" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9965</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="R4" s="4">
+      <c r="R4" s="3"/>
+      <c r="S4" s="4">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -826,19 +853,23 @@
       <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3"/>
+      <c r="M5" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11022</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="4">
+      <c r="R5" s="3"/>
+      <c r="S5" s="4">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -875,19 +906,23 @@
       <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9986</v>
+      </c>
       <c r="N6" s="3"/>
-      <c r="O6" s="3">
-        <v>1</v>
-      </c>
-      <c r="P6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
       <c r="Q6" s="3"/>
-      <c r="R6" s="4">
+      <c r="R6" s="3"/>
+      <c r="S6" s="4">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -924,19 +959,23 @@
       <c r="L7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9109</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="4">
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="4">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -973,19 +1012,23 @@
       <c r="L8" s="1">
         <v>0</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9716</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3">
-        <v>1</v>
-      </c>
-      <c r="R8" s="4">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1022,17 +1065,21 @@
       <c r="L9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9999</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="4">
+      <c r="R9" s="3"/>
+      <c r="S9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1069,17 +1116,21 @@
       <c r="L10" s="1">
         <v>0</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9160</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="4">
+      <c r="R10" s="3"/>
+      <c r="S10" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1116,17 +1167,21 @@
       <c r="L11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>10782</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="4">
+      <c r="R11" s="3"/>
+      <c r="S11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1163,17 +1218,21 @@
       <c r="L12" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9716</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
-      <c r="R12" s="4">
+      <c r="R12" s="3"/>
+      <c r="S12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1210,17 +1269,21 @@
       <c r="L13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9716</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
-      <c r="R13" s="4">
+      <c r="R13" s="3"/>
+      <c r="S13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1257,17 +1320,21 @@
       <c r="L14" s="1">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9716</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
-      <c r="R14" s="4">
+      <c r="R14" s="3"/>
+      <c r="S14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1304,17 +1371,21 @@
       <c r="L15" s="1">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9716</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
-      <c r="R15" s="4">
+      <c r="R15" s="3"/>
+      <c r="S15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1351,17 +1422,21 @@
       <c r="L16" s="1">
         <v>0</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9716</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-      <c r="R16" s="4">
+      <c r="R16" s="3"/>
+      <c r="S16" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1398,17 +1473,21 @@
       <c r="L17" s="1">
         <v>0</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9716</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
-      <c r="R17" s="4">
+      <c r="R17" s="3"/>
+      <c r="S17" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1445,17 +1524,21 @@
       <c r="L18" s="1">
         <v>0</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9716</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="4">
+      <c r="R18" s="3"/>
+      <c r="S18" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1492,17 +1575,21 @@
       <c r="L19" s="1">
         <v>0</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9716</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-      <c r="R19" s="4">
+      <c r="R19" s="3"/>
+      <c r="S19" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1539,17 +1626,21 @@
       <c r="L20" s="1">
         <v>0</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9716</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
-      <c r="R20" s="4">
+      <c r="R20" s="3"/>
+      <c r="S20" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1586,17 +1677,21 @@
       <c r="L21" s="1">
         <v>0</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>9716</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
-      <c r="R21" s="4">
+      <c r="R21" s="3"/>
+      <c r="S21" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1633,17 +1728,21 @@
       <c r="L22" s="1">
         <v>0</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
-      <c r="R22" s="4">
+      <c r="R22" s="3"/>
+      <c r="S22" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1680,17 +1779,21 @@
       <c r="L23" s="1">
         <v>0</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
-      <c r="R23" s="4">
+      <c r="R23" s="3"/>
+      <c r="S23" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1727,17 +1830,21 @@
       <c r="L24" s="1">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
-      <c r="R24" s="4">
+      <c r="R24" s="3"/>
+      <c r="S24" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1774,17 +1881,21 @@
       <c r="L25" s="1">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
-      <c r="R25" s="4">
+      <c r="R25" s="3"/>
+      <c r="S25" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1821,17 +1932,21 @@
       <c r="L26" s="1">
         <v>0</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11075</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
-      <c r="R26" s="4">
+      <c r="R26" s="3"/>
+      <c r="S26" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1868,17 +1983,21 @@
       <c r="L27" s="1">
         <v>0</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
-      <c r="R27" s="4">
+      <c r="R27" s="3"/>
+      <c r="S27" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1915,17 +2034,21 @@
       <c r="L28" s="1">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
-      <c r="R28" s="4">
+      <c r="R28" s="3"/>
+      <c r="S28" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1962,17 +2085,21 @@
       <c r="L29" s="1">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
-      <c r="R29" s="4">
+      <c r="R29" s="3"/>
+      <c r="S29" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2009,17 +2136,21 @@
       <c r="L30" s="1">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
-      <c r="R30" s="4">
+      <c r="R30" s="3"/>
+      <c r="S30" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2056,17 +2187,21 @@
       <c r="L31" s="1">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
+      <c r="M31" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11107</v>
+      </c>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
-      <c r="R31" s="4">
+      <c r="R31" s="3"/>
+      <c r="S31" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2103,17 +2238,21 @@
       <c r="L32" s="1">
         <v>0</v>
       </c>
-      <c r="M32" s="3"/>
+      <c r="M32" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
-      <c r="R32" s="4">
+      <c r="R32" s="3"/>
+      <c r="S32" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2150,17 +2289,21 @@
       <c r="L33" s="1">
         <v>0</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
-      <c r="R33" s="4">
+      <c r="R33" s="3"/>
+      <c r="S33" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2197,17 +2340,21 @@
       <c r="L34" s="1">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
-      <c r="R34" s="4">
+      <c r="R34" s="3"/>
+      <c r="S34" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2244,17 +2391,21 @@
       <c r="L35" s="1">
         <v>0</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
-      <c r="R35" s="4">
+      <c r="R35" s="3"/>
+      <c r="S35" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2291,17 +2442,21 @@
       <c r="L36" s="1">
         <v>0</v>
       </c>
-      <c r="M36" s="3"/>
+      <c r="M36" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
-      <c r="R36" s="4">
+      <c r="R36" s="3"/>
+      <c r="S36" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2338,17 +2493,21 @@
       <c r="L37" s="1">
         <v>0</v>
       </c>
-      <c r="M37" s="3"/>
+      <c r="M37" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
-      <c r="R37" s="4">
+      <c r="R37" s="3"/>
+      <c r="S37" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2385,17 +2544,21 @@
       <c r="L38" s="1">
         <v>0</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
-      <c r="R38" s="4">
+      <c r="R38" s="3"/>
+      <c r="S38" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2432,17 +2595,21 @@
       <c r="L39" s="1">
         <v>0</v>
       </c>
-      <c r="M39" s="3"/>
+      <c r="M39" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-      <c r="R39" s="4">
+      <c r="R39" s="3"/>
+      <c r="S39" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2479,17 +2646,21 @@
       <c r="L40" s="1">
         <v>0</v>
       </c>
-      <c r="M40" s="3"/>
+      <c r="M40" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-      <c r="R40" s="4">
+      <c r="R40" s="3"/>
+      <c r="S40" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2526,17 +2697,21 @@
       <c r="L41" s="1">
         <v>0</v>
       </c>
-      <c r="M41" s="3"/>
+      <c r="M41" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
-      <c r="R41" s="4">
+      <c r="R41" s="3"/>
+      <c r="S41" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2573,17 +2748,21 @@
       <c r="L42" s="1">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
+      <c r="M42" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
-      <c r="R42" s="4">
+      <c r="R42" s="3"/>
+      <c r="S42" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2620,17 +2799,21 @@
       <c r="L43" s="1">
         <v>0</v>
       </c>
-      <c r="M43" s="3"/>
+      <c r="M43" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
-      <c r="R43" s="4">
+      <c r="R43" s="3"/>
+      <c r="S43" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2667,17 +2850,21 @@
       <c r="L44" s="1">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
+      <c r="M44" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
-      <c r="R44" s="4">
+      <c r="R44" s="3"/>
+      <c r="S44" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2714,17 +2901,21 @@
       <c r="L45" s="1">
         <v>0</v>
       </c>
-      <c r="M45" s="3"/>
+      <c r="M45" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
-      <c r="R45" s="4">
+      <c r="R45" s="3"/>
+      <c r="S45" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2761,17 +2952,21 @@
       <c r="L46" s="1">
         <v>0</v>
       </c>
-      <c r="M46" s="3"/>
+      <c r="M46" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
-      <c r="R46" s="4">
+      <c r="R46" s="3"/>
+      <c r="S46" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2808,17 +3003,21 @@
       <c r="L47" s="1">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
+      <c r="M47" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
-      <c r="R47" s="4">
+      <c r="R47" s="3"/>
+      <c r="S47" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2855,17 +3054,21 @@
       <c r="L48" s="1">
         <v>0</v>
       </c>
-      <c r="M48" s="3"/>
+      <c r="M48" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
-      <c r="R48" s="4">
+      <c r="R48" s="3"/>
+      <c r="S48" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2902,17 +3105,21 @@
       <c r="L49" s="1">
         <v>0</v>
       </c>
-      <c r="M49" s="3"/>
+      <c r="M49" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
-      <c r="R49" s="4">
+      <c r="R49" s="3"/>
+      <c r="S49" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2949,17 +3156,21 @@
       <c r="L50" s="1">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
+      <c r="M50" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
-      <c r="R50" s="4">
+      <c r="R50" s="3"/>
+      <c r="S50" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2996,17 +3207,21 @@
       <c r="L51" s="1">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
+      <c r="M51" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>11230</v>
+      </c>
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
-      <c r="R51" s="4">
+      <c r="R51" s="3"/>
+      <c r="S51" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3043,17 +3258,21 @@
       <c r="L52" s="1">
         <v>0</v>
       </c>
-      <c r="M52" s="3"/>
+      <c r="M52" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
-      <c r="R52" s="4">
+      <c r="R52" s="3"/>
+      <c r="S52" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3090,17 +3309,21 @@
       <c r="L53" s="1">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
+      <c r="M53" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
-      <c r="R53" s="4">
+      <c r="R53" s="3"/>
+      <c r="S53" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3137,17 +3360,21 @@
       <c r="L54" s="1">
         <v>0</v>
       </c>
-      <c r="M54" s="3"/>
+      <c r="M54" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
-      <c r="R54" s="4">
+      <c r="R54" s="3"/>
+      <c r="S54" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3184,17 +3411,21 @@
       <c r="L55" s="1">
         <v>0</v>
       </c>
-      <c r="M55" s="3"/>
+      <c r="M55" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13056</v>
+      </c>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-      <c r="R55" s="4">
+      <c r="R55" s="3"/>
+      <c r="S55" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3231,17 +3462,21 @@
       <c r="L56" s="1">
         <v>0</v>
       </c>
-      <c r="M56" s="3"/>
+      <c r="M56" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-      <c r="R56" s="4">
+      <c r="R56" s="3"/>
+      <c r="S56" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3278,17 +3513,21 @@
       <c r="L57" s="1">
         <v>0</v>
       </c>
-      <c r="M57" s="3"/>
+      <c r="M57" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N57" s="3"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
-      <c r="R57" s="4">
+      <c r="R57" s="3"/>
+      <c r="S57" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3325,17 +3564,21 @@
       <c r="L58" s="1">
         <v>0</v>
       </c>
-      <c r="M58" s="3"/>
+      <c r="M58" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N58" s="3"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
-      <c r="R58" s="4">
+      <c r="R58" s="3"/>
+      <c r="S58" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3372,17 +3615,21 @@
       <c r="L59" s="1">
         <v>0</v>
       </c>
-      <c r="M59" s="3"/>
+      <c r="M59" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
-      <c r="R59" s="4">
+      <c r="R59" s="3"/>
+      <c r="S59" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3419,17 +3666,21 @@
       <c r="L60" s="1">
         <v>0</v>
       </c>
-      <c r="M60" s="3"/>
+      <c r="M60" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
       <c r="Q60" s="3"/>
-      <c r="R60" s="4">
+      <c r="R60" s="3"/>
+      <c r="S60" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3466,17 +3717,21 @@
       <c r="L61" s="1">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
+      <c r="M61" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
       <c r="Q61" s="3"/>
-      <c r="R61" s="4">
+      <c r="R61" s="3"/>
+      <c r="S61" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3513,17 +3768,21 @@
       <c r="L62" s="1">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
+      <c r="M62" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
-      <c r="R62" s="4">
+      <c r="R62" s="3"/>
+      <c r="S62" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3560,17 +3819,21 @@
       <c r="L63" s="1">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
+      <c r="M63" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
-      <c r="R63" s="4">
+      <c r="R63" s="3"/>
+      <c r="S63" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3607,17 +3870,21 @@
       <c r="L64" s="1">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
+      <c r="M64" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
-      <c r="R64" s="4">
+      <c r="R64" s="3"/>
+      <c r="S64" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3654,17 +3921,21 @@
       <c r="L65" s="1">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
+      <c r="M65" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
       <c r="Q65" s="3"/>
-      <c r="R65" s="4">
+      <c r="R65" s="3"/>
+      <c r="S65" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3701,17 +3972,21 @@
       <c r="L66" s="1">
         <v>0</v>
       </c>
-      <c r="M66" s="3"/>
+      <c r="M66" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
       <c r="Q66" s="3"/>
-      <c r="R66" s="4">
+      <c r="R66" s="3"/>
+      <c r="S66" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3748,17 +4023,21 @@
       <c r="L67" s="1">
         <v>0</v>
       </c>
-      <c r="M67" s="3"/>
+      <c r="M67" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-      <c r="R67" s="4">
-        <f t="shared" ref="R67:R130" si="1">1000*M67+300*O67+700*N67+1200*P67+2000*Q67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R67" s="3"/>
+      <c r="S67" s="4">
+        <f t="shared" ref="S67:S130" si="1">1000*N67+300*P67+700*O67+1200*Q67+2000*R67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3795,17 +4074,21 @@
       <c r="L68" s="1">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
+      <c r="M68" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
-      <c r="R68" s="4">
+      <c r="R68" s="3"/>
+      <c r="S68" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3842,17 +4125,21 @@
       <c r="L69" s="1">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
+      <c r="M69" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
       <c r="Q69" s="3"/>
-      <c r="R69" s="4">
+      <c r="R69" s="3"/>
+      <c r="S69" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3889,17 +4176,21 @@
       <c r="L70" s="1">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
+      <c r="M70" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
-      <c r="R70" s="4">
+      <c r="R70" s="3"/>
+      <c r="S70" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3936,17 +4227,21 @@
       <c r="L71" s="1">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
+      <c r="M71" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
-      <c r="R71" s="4">
+      <c r="R71" s="3"/>
+      <c r="S71" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3983,17 +4278,21 @@
       <c r="L72" s="1">
         <v>0</v>
       </c>
-      <c r="M72" s="3"/>
+      <c r="M72" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13200</v>
+      </c>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
       <c r="Q72" s="3"/>
-      <c r="R72" s="4">
+      <c r="R72" s="3"/>
+      <c r="S72" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -4030,17 +4329,21 @@
       <c r="L73" s="1">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
+      <c r="M73" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13138</v>
+      </c>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
-      <c r="R73" s="4">
+      <c r="R73" s="3"/>
+      <c r="S73" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -4077,17 +4380,21 @@
       <c r="L74" s="1">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
+      <c r="M74" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13245</v>
+      </c>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
-      <c r="R74" s="4">
+      <c r="R74" s="3"/>
+      <c r="S74" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -4124,17 +4431,21 @@
       <c r="L75" s="1">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
+      <c r="M75" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
-      <c r="R75" s="4">
+      <c r="R75" s="3"/>
+      <c r="S75" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4171,17 +4482,21 @@
       <c r="L76" s="1">
         <v>0</v>
       </c>
-      <c r="M76" s="3"/>
+      <c r="M76" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13073</v>
+      </c>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3"/>
-      <c r="R76" s="4">
+      <c r="R76" s="3"/>
+      <c r="S76" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4218,17 +4533,21 @@
       <c r="L77" s="1">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
+      <c r="M77" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3"/>
-      <c r="R77" s="4">
+      <c r="R77" s="3"/>
+      <c r="S77" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4265,17 +4584,21 @@
       <c r="L78" s="1">
         <v>0</v>
       </c>
-      <c r="M78" s="3"/>
+      <c r="M78" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N78" s="3"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
       <c r="Q78" s="3"/>
-      <c r="R78" s="4">
+      <c r="R78" s="3"/>
+      <c r="S78" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4312,17 +4635,21 @@
       <c r="L79" s="1">
         <v>0</v>
       </c>
-      <c r="M79" s="3"/>
+      <c r="M79" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13215</v>
+      </c>
       <c r="N79" s="3"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
       <c r="Q79" s="3"/>
-      <c r="R79" s="4">
+      <c r="R79" s="3"/>
+      <c r="S79" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4359,17 +4686,21 @@
       <c r="L80" s="1">
         <v>0</v>
       </c>
-      <c r="M80" s="3"/>
+      <c r="M80" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13230</v>
+      </c>
       <c r="N80" s="3"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
       <c r="Q80" s="3"/>
-      <c r="R80" s="4">
+      <c r="R80" s="3"/>
+      <c r="S80" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4406,17 +4737,21 @@
       <c r="L81" s="1">
         <v>0</v>
       </c>
-      <c r="M81" s="3"/>
+      <c r="M81" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13230</v>
+      </c>
       <c r="N81" s="3"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
       <c r="Q81" s="3"/>
-      <c r="R81" s="4">
+      <c r="R81" s="3"/>
+      <c r="S81" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4453,17 +4788,21 @@
       <c r="L82" s="1">
         <v>0</v>
       </c>
-      <c r="M82" s="3"/>
+      <c r="M82" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13060</v>
+      </c>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-      <c r="R82" s="4">
+      <c r="R82" s="3"/>
+      <c r="S82" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4500,17 +4839,21 @@
       <c r="L83" s="1">
         <v>0</v>
       </c>
-      <c r="M83" s="3"/>
+      <c r="M83" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
       <c r="Q83" s="3"/>
-      <c r="R83" s="4">
+      <c r="R83" s="3"/>
+      <c r="S83" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4547,17 +4890,21 @@
       <c r="L84" s="1">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
+      <c r="M84" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N84" s="3"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
       <c r="Q84" s="3"/>
-      <c r="R84" s="4">
+      <c r="R84" s="3"/>
+      <c r="S84" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4594,17 +4941,21 @@
       <c r="L85" s="1">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
+      <c r="M85" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13230</v>
+      </c>
       <c r="N85" s="3"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
-      <c r="R85" s="4">
+      <c r="R85" s="3"/>
+      <c r="S85" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4641,17 +4992,21 @@
       <c r="L86" s="1">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
+      <c r="M86" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13245</v>
+      </c>
       <c r="N86" s="3"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
       <c r="Q86" s="3"/>
-      <c r="R86" s="4">
+      <c r="R86" s="3"/>
+      <c r="S86" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4688,17 +5043,21 @@
       <c r="L87" s="1">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
+      <c r="M87" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13245</v>
+      </c>
       <c r="N87" s="3"/>
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3"/>
-      <c r="R87" s="4">
+      <c r="R87" s="3"/>
+      <c r="S87" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4735,17 +5094,21 @@
       <c r="L88" s="1">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
+      <c r="M88" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N88" s="3"/>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
-      <c r="R88" s="4">
+      <c r="R88" s="3"/>
+      <c r="S88" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4782,17 +5145,21 @@
       <c r="L89" s="1">
         <v>0</v>
       </c>
-      <c r="M89" s="3"/>
+      <c r="M89" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N89" s="3"/>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
-      <c r="R89" s="4">
+      <c r="R89" s="3"/>
+      <c r="S89" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4829,17 +5196,21 @@
       <c r="L90" s="1">
         <v>0</v>
       </c>
-      <c r="M90" s="3"/>
+      <c r="M90" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-      <c r="R90" s="4">
+      <c r="R90" s="3"/>
+      <c r="S90" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4876,17 +5247,21 @@
       <c r="L91" s="1">
         <v>0</v>
       </c>
-      <c r="M91" s="3"/>
+      <c r="M91" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N91" s="3"/>
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
-      <c r="R91" s="4">
+      <c r="R91" s="3"/>
+      <c r="S91" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4923,17 +5298,21 @@
       <c r="L92" s="1">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
+      <c r="M92" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N92" s="3"/>
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3"/>
-      <c r="R92" s="4">
+      <c r="R92" s="3"/>
+      <c r="S92" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4970,17 +5349,21 @@
       <c r="L93" s="1">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
+      <c r="M93" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N93" s="3"/>
       <c r="O93" s="3"/>
       <c r="P93" s="3"/>
       <c r="Q93" s="3"/>
-      <c r="R93" s="4">
+      <c r="R93" s="3"/>
+      <c r="S93" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -5017,17 +5400,21 @@
       <c r="L94" s="1">
         <v>0</v>
       </c>
-      <c r="M94" s="3"/>
+      <c r="M94" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13230</v>
+      </c>
       <c r="N94" s="3"/>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
-      <c r="R94" s="4">
+      <c r="R94" s="3"/>
+      <c r="S94" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -5064,17 +5451,21 @@
       <c r="L95" s="1">
         <v>0</v>
       </c>
-      <c r="M95" s="3"/>
+      <c r="M95" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-      <c r="R95" s="4">
+      <c r="R95" s="3"/>
+      <c r="S95" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -5111,17 +5502,21 @@
       <c r="L96" s="1">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
+      <c r="M96" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13245</v>
+      </c>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
       <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
-      <c r="R96" s="4">
+      <c r="R96" s="3"/>
+      <c r="S96" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -5158,17 +5553,21 @@
       <c r="L97" s="1">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
+      <c r="M97" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13073</v>
+      </c>
       <c r="N97" s="3"/>
       <c r="O97" s="3"/>
       <c r="P97" s="3"/>
       <c r="Q97" s="3"/>
-      <c r="R97" s="4">
+      <c r="R97" s="3"/>
+      <c r="S97" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -5205,17 +5604,21 @@
       <c r="L98" s="1">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
+      <c r="M98" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N98" s="3"/>
       <c r="O98" s="3"/>
       <c r="P98" s="3"/>
       <c r="Q98" s="3"/>
-      <c r="R98" s="4">
+      <c r="R98" s="3"/>
+      <c r="S98" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -5252,17 +5655,21 @@
       <c r="L99" s="1">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
+      <c r="M99" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N99" s="3"/>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
-      <c r="R99" s="4">
+      <c r="R99" s="3"/>
+      <c r="S99" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -5299,17 +5706,21 @@
       <c r="L100" s="1">
         <v>0</v>
       </c>
-      <c r="M100" s="3"/>
+      <c r="M100" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13245</v>
+      </c>
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
-      <c r="R100" s="4">
+      <c r="R100" s="3"/>
+      <c r="S100" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -5346,17 +5757,21 @@
       <c r="L101" s="1">
         <v>0</v>
       </c>
-      <c r="M101" s="3"/>
+      <c r="M101" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13245</v>
+      </c>
       <c r="N101" s="3"/>
       <c r="O101" s="3"/>
       <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
-      <c r="R101" s="4">
+      <c r="R101" s="3"/>
+      <c r="S101" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -5393,17 +5808,21 @@
       <c r="L102" s="1">
         <v>0</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N102" s="3"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
-      <c r="R102" s="4">
+      <c r="R102" s="3"/>
+      <c r="S102" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -5440,17 +5859,21 @@
       <c r="L103" s="1">
         <v>0</v>
       </c>
-      <c r="M103" s="3"/>
+      <c r="M103" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
-      <c r="R103" s="4">
+      <c r="R103" s="3"/>
+      <c r="S103" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -5487,17 +5910,21 @@
       <c r="L104" s="1">
         <v>0</v>
       </c>
-      <c r="M104" s="3"/>
+      <c r="M104" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N104" s="3"/>
       <c r="O104" s="3"/>
       <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
-      <c r="R104" s="4">
+      <c r="R104" s="3"/>
+      <c r="S104" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -5534,17 +5961,21 @@
       <c r="L105" s="1">
         <v>0</v>
       </c>
-      <c r="M105" s="3"/>
+      <c r="M105" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15207</v>
+      </c>
       <c r="N105" s="3"/>
       <c r="O105" s="3"/>
       <c r="P105" s="3"/>
       <c r="Q105" s="3"/>
-      <c r="R105" s="4">
+      <c r="R105" s="3"/>
+      <c r="S105" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -5581,17 +6012,21 @@
       <c r="L106" s="1">
         <v>0</v>
       </c>
-      <c r="M106" s="3"/>
+      <c r="M106" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N106" s="3"/>
       <c r="O106" s="3"/>
       <c r="P106" s="3"/>
       <c r="Q106" s="3"/>
-      <c r="R106" s="4">
+      <c r="R106" s="3"/>
+      <c r="S106" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -5628,17 +6063,21 @@
       <c r="L107" s="1">
         <v>0</v>
       </c>
-      <c r="M107" s="3"/>
+      <c r="M107" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N107" s="3"/>
       <c r="O107" s="3"/>
       <c r="P107" s="3"/>
       <c r="Q107" s="3"/>
-      <c r="R107" s="4">
+      <c r="R107" s="3"/>
+      <c r="S107" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -5675,17 +6114,21 @@
       <c r="L108" s="1">
         <v>0</v>
       </c>
-      <c r="M108" s="3"/>
+      <c r="M108" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>14797</v>
+      </c>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
       <c r="P108" s="3"/>
       <c r="Q108" s="3"/>
-      <c r="R108" s="4">
+      <c r="R108" s="3"/>
+      <c r="S108" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -5722,17 +6165,21 @@
       <c r="L109" s="1">
         <v>0</v>
       </c>
-      <c r="M109" s="3"/>
+      <c r="M109" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N109" s="3"/>
       <c r="O109" s="3"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
-      <c r="R109" s="4">
+      <c r="R109" s="3"/>
+      <c r="S109" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -5769,17 +6216,21 @@
       <c r="L110" s="1">
         <v>0</v>
       </c>
-      <c r="M110" s="3"/>
+      <c r="M110" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N110" s="3"/>
       <c r="O110" s="3"/>
       <c r="P110" s="3"/>
       <c r="Q110" s="3"/>
-      <c r="R110" s="4">
+      <c r="R110" s="3"/>
+      <c r="S110" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -5816,17 +6267,21 @@
       <c r="L111" s="1">
         <v>0</v>
       </c>
-      <c r="M111" s="3"/>
+      <c r="M111" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N111" s="3"/>
       <c r="O111" s="3"/>
       <c r="P111" s="3"/>
       <c r="Q111" s="3"/>
-      <c r="R111" s="4">
+      <c r="R111" s="3"/>
+      <c r="S111" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -5863,17 +6318,21 @@
       <c r="L112" s="1">
         <v>0</v>
       </c>
-      <c r="M112" s="3"/>
+      <c r="M112" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N112" s="3"/>
       <c r="O112" s="3"/>
       <c r="P112" s="3"/>
       <c r="Q112" s="3"/>
-      <c r="R112" s="4">
+      <c r="R112" s="3"/>
+      <c r="S112" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -5910,17 +6369,21 @@
       <c r="L113" s="1">
         <v>0</v>
       </c>
-      <c r="M113" s="3"/>
+      <c r="M113" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
       <c r="P113" s="3"/>
       <c r="Q113" s="3"/>
-      <c r="R113" s="4">
+      <c r="R113" s="3"/>
+      <c r="S113" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -5957,17 +6420,21 @@
       <c r="L114" s="1">
         <v>0</v>
       </c>
-      <c r="M114" s="3"/>
+      <c r="M114" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>14995</v>
+      </c>
       <c r="N114" s="3"/>
       <c r="O114" s="3"/>
       <c r="P114" s="3"/>
       <c r="Q114" s="3"/>
-      <c r="R114" s="4">
+      <c r="R114" s="3"/>
+      <c r="S114" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -6004,17 +6471,21 @@
       <c r="L115" s="1">
         <v>0</v>
       </c>
-      <c r="M115" s="3"/>
+      <c r="M115" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N115" s="3"/>
       <c r="O115" s="3"/>
       <c r="P115" s="3"/>
       <c r="Q115" s="3"/>
-      <c r="R115" s="4">
+      <c r="R115" s="3"/>
+      <c r="S115" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -6051,17 +6522,21 @@
       <c r="L116" s="1">
         <v>0</v>
       </c>
-      <c r="M116" s="3"/>
+      <c r="M116" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N116" s="3"/>
       <c r="O116" s="3"/>
       <c r="P116" s="3"/>
       <c r="Q116" s="3"/>
-      <c r="R116" s="4">
+      <c r="R116" s="3"/>
+      <c r="S116" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -6098,17 +6573,21 @@
       <c r="L117" s="1">
         <v>0</v>
       </c>
-      <c r="M117" s="3"/>
+      <c r="M117" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N117" s="3"/>
       <c r="O117" s="3"/>
       <c r="P117" s="3"/>
       <c r="Q117" s="3"/>
-      <c r="R117" s="4">
+      <c r="R117" s="3"/>
+      <c r="S117" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -6145,17 +6624,21 @@
       <c r="L118" s="1">
         <v>0</v>
       </c>
-      <c r="M118" s="3"/>
+      <c r="M118" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15021</v>
+      </c>
       <c r="N118" s="3"/>
       <c r="O118" s="3"/>
       <c r="P118" s="3"/>
       <c r="Q118" s="3"/>
-      <c r="R118" s="4">
+      <c r="R118" s="3"/>
+      <c r="S118" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -6192,17 +6675,21 @@
       <c r="L119" s="1">
         <v>0</v>
       </c>
-      <c r="M119" s="3"/>
+      <c r="M119" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N119" s="3"/>
       <c r="O119" s="3"/>
       <c r="P119" s="3"/>
       <c r="Q119" s="3"/>
-      <c r="R119" s="4">
+      <c r="R119" s="3"/>
+      <c r="S119" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -6239,17 +6726,21 @@
       <c r="L120" s="1">
         <v>0</v>
       </c>
-      <c r="M120" s="3"/>
+      <c r="M120" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N120" s="3"/>
       <c r="O120" s="3"/>
       <c r="P120" s="3"/>
       <c r="Q120" s="3"/>
-      <c r="R120" s="4">
+      <c r="R120" s="3"/>
+      <c r="S120" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -6286,17 +6777,21 @@
       <c r="L121" s="1">
         <v>0</v>
       </c>
-      <c r="M121" s="3"/>
+      <c r="M121" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N121" s="3"/>
       <c r="O121" s="3"/>
       <c r="P121" s="3"/>
       <c r="Q121" s="3"/>
-      <c r="R121" s="4">
+      <c r="R121" s="3"/>
+      <c r="S121" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -6333,17 +6828,21 @@
       <c r="L122" s="1">
         <v>0</v>
       </c>
-      <c r="M122" s="3"/>
+      <c r="M122" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N122" s="3"/>
       <c r="O122" s="3"/>
       <c r="P122" s="3"/>
       <c r="Q122" s="3"/>
-      <c r="R122" s="4">
+      <c r="R122" s="3"/>
+      <c r="S122" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -6380,17 +6879,21 @@
       <c r="L123" s="1">
         <v>0</v>
       </c>
-      <c r="M123" s="3"/>
+      <c r="M123" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N123" s="3"/>
       <c r="O123" s="3"/>
       <c r="P123" s="3"/>
       <c r="Q123" s="3"/>
-      <c r="R123" s="4">
+      <c r="R123" s="3"/>
+      <c r="S123" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -6427,17 +6930,21 @@
       <c r="L124" s="1">
         <v>0</v>
       </c>
-      <c r="M124" s="3"/>
+      <c r="M124" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
       <c r="P124" s="3"/>
       <c r="Q124" s="3"/>
-      <c r="R124" s="4">
+      <c r="R124" s="3"/>
+      <c r="S124" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -6474,17 +6981,21 @@
       <c r="L125" s="1">
         <v>0</v>
       </c>
-      <c r="M125" s="3"/>
+      <c r="M125" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N125" s="3"/>
       <c r="O125" s="3"/>
       <c r="P125" s="3"/>
       <c r="Q125" s="3"/>
-      <c r="R125" s="4">
+      <c r="R125" s="3"/>
+      <c r="S125" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -6521,17 +7032,21 @@
       <c r="L126" s="1">
         <v>0</v>
       </c>
-      <c r="M126" s="3"/>
+      <c r="M126" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15252</v>
+      </c>
       <c r="N126" s="3"/>
       <c r="O126" s="3"/>
       <c r="P126" s="3"/>
       <c r="Q126" s="3"/>
-      <c r="R126" s="4">
+      <c r="R126" s="3"/>
+      <c r="S126" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -6568,17 +7083,21 @@
       <c r="L127" s="1">
         <v>0</v>
       </c>
-      <c r="M127" s="3"/>
+      <c r="M127" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N127" s="3"/>
       <c r="O127" s="3"/>
       <c r="P127" s="3"/>
       <c r="Q127" s="3"/>
-      <c r="R127" s="4">
+      <c r="R127" s="3"/>
+      <c r="S127" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -6615,17 +7134,21 @@
       <c r="L128" s="1">
         <v>0</v>
       </c>
-      <c r="M128" s="3"/>
+      <c r="M128" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15244</v>
+      </c>
       <c r="N128" s="3"/>
       <c r="O128" s="3"/>
       <c r="P128" s="3"/>
       <c r="Q128" s="3"/>
-      <c r="R128" s="4">
+      <c r="R128" s="3"/>
+      <c r="S128" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -6662,17 +7185,21 @@
       <c r="L129" s="1">
         <v>0</v>
       </c>
-      <c r="M129" s="3"/>
+      <c r="M129" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N129" s="3"/>
       <c r="O129" s="3"/>
       <c r="P129" s="3"/>
       <c r="Q129" s="3"/>
-      <c r="R129" s="4">
+      <c r="R129" s="3"/>
+      <c r="S129" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -6709,17 +7236,21 @@
       <c r="L130" s="1">
         <v>0</v>
       </c>
-      <c r="M130" s="3"/>
+      <c r="M130" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N130" s="3"/>
       <c r="O130" s="3"/>
       <c r="P130" s="3"/>
       <c r="Q130" s="3"/>
-      <c r="R130" s="4">
+      <c r="R130" s="3"/>
+      <c r="S130" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -6756,17 +7287,21 @@
       <c r="L131" s="1">
         <v>0</v>
       </c>
-      <c r="M131" s="3"/>
+      <c r="M131" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15259</v>
+      </c>
       <c r="N131" s="3"/>
       <c r="O131" s="3"/>
       <c r="P131" s="3"/>
       <c r="Q131" s="3"/>
-      <c r="R131" s="4">
-        <f t="shared" ref="R131:R194" si="2">1000*M131+300*O131+700*N131+1200*P131+2000*Q131</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R131" s="3"/>
+      <c r="S131" s="4">
+        <f t="shared" ref="S131:S194" si="2">1000*N131+300*P131+700*O131+1200*Q131+2000*R131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -6803,17 +7338,21 @@
       <c r="L132" s="1">
         <v>0</v>
       </c>
-      <c r="M132" s="3"/>
+      <c r="M132" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15259</v>
+      </c>
       <c r="N132" s="3"/>
       <c r="O132" s="3"/>
       <c r="P132" s="3"/>
       <c r="Q132" s="3"/>
-      <c r="R132" s="4">
+      <c r="R132" s="3"/>
+      <c r="S132" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -6850,17 +7389,21 @@
       <c r="L133" s="1">
         <v>0</v>
       </c>
-      <c r="M133" s="3"/>
+      <c r="M133" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N133" s="3"/>
       <c r="O133" s="3"/>
       <c r="P133" s="3"/>
       <c r="Q133" s="3"/>
-      <c r="R133" s="4">
+      <c r="R133" s="3"/>
+      <c r="S133" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -6897,17 +7440,21 @@
       <c r="L134" s="1">
         <v>0</v>
       </c>
-      <c r="M134" s="3"/>
+      <c r="M134" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15155</v>
+      </c>
       <c r="N134" s="3"/>
       <c r="O134" s="3"/>
       <c r="P134" s="3"/>
       <c r="Q134" s="3"/>
-      <c r="R134" s="4">
+      <c r="R134" s="3"/>
+      <c r="S134" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -6944,17 +7491,21 @@
       <c r="L135" s="1">
         <v>0</v>
       </c>
-      <c r="M135" s="3"/>
+      <c r="M135" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15237</v>
+      </c>
       <c r="N135" s="3"/>
       <c r="O135" s="3"/>
       <c r="P135" s="3"/>
       <c r="Q135" s="3"/>
-      <c r="R135" s="4">
+      <c r="R135" s="3"/>
+      <c r="S135" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -6991,17 +7542,21 @@
       <c r="L136" s="1">
         <v>0</v>
       </c>
-      <c r="M136" s="3"/>
+      <c r="M136" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N136" s="3"/>
       <c r="O136" s="3"/>
       <c r="P136" s="3"/>
       <c r="Q136" s="3"/>
-      <c r="R136" s="4">
+      <c r="R136" s="3"/>
+      <c r="S136" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -7038,17 +7593,21 @@
       <c r="L137" s="1">
         <v>0</v>
       </c>
-      <c r="M137" s="3"/>
+      <c r="M137" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N137" s="3"/>
       <c r="O137" s="3"/>
       <c r="P137" s="3"/>
       <c r="Q137" s="3"/>
-      <c r="R137" s="4">
+      <c r="R137" s="3"/>
+      <c r="S137" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -7085,17 +7644,21 @@
       <c r="L138" s="1">
         <v>0</v>
       </c>
-      <c r="M138" s="3"/>
+      <c r="M138" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15252</v>
+      </c>
       <c r="N138" s="3"/>
       <c r="O138" s="3"/>
       <c r="P138" s="3"/>
       <c r="Q138" s="3"/>
-      <c r="R138" s="4">
+      <c r="R138" s="3"/>
+      <c r="S138" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -7132,17 +7695,21 @@
       <c r="L139" s="1">
         <v>0</v>
       </c>
-      <c r="M139" s="3"/>
+      <c r="M139" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N139" s="3"/>
       <c r="O139" s="3"/>
       <c r="P139" s="3"/>
       <c r="Q139" s="3"/>
-      <c r="R139" s="4">
+      <c r="R139" s="3"/>
+      <c r="S139" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -7179,17 +7746,21 @@
       <c r="L140" s="1">
         <v>0</v>
       </c>
-      <c r="M140" s="3"/>
+      <c r="M140" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15237</v>
+      </c>
       <c r="N140" s="3"/>
       <c r="O140" s="3"/>
       <c r="P140" s="3"/>
       <c r="Q140" s="3"/>
-      <c r="R140" s="4">
+      <c r="R140" s="3"/>
+      <c r="S140" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -7226,17 +7797,21 @@
       <c r="L141" s="1">
         <v>0</v>
       </c>
-      <c r="M141" s="3"/>
+      <c r="M141" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N141" s="3"/>
       <c r="O141" s="3"/>
       <c r="P141" s="3"/>
       <c r="Q141" s="3"/>
-      <c r="R141" s="4">
+      <c r="R141" s="3"/>
+      <c r="S141" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -7273,17 +7848,21 @@
       <c r="L142" s="1">
         <v>0</v>
       </c>
-      <c r="M142" s="3"/>
+      <c r="M142" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15259</v>
+      </c>
       <c r="N142" s="3"/>
       <c r="O142" s="3"/>
       <c r="P142" s="3"/>
       <c r="Q142" s="3"/>
-      <c r="R142" s="4">
+      <c r="R142" s="3"/>
+      <c r="S142" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -7320,17 +7899,21 @@
       <c r="L143" s="1">
         <v>0</v>
       </c>
-      <c r="M143" s="3"/>
+      <c r="M143" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15178</v>
+      </c>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
       <c r="P143" s="3"/>
       <c r="Q143" s="3"/>
-      <c r="R143" s="4">
+      <c r="R143" s="3"/>
+      <c r="S143" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -7367,17 +7950,21 @@
       <c r="L144" s="1">
         <v>0</v>
       </c>
-      <c r="M144" s="3"/>
+      <c r="M144" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N144" s="3"/>
       <c r="O144" s="3"/>
       <c r="P144" s="3"/>
       <c r="Q144" s="3"/>
-      <c r="R144" s="4">
+      <c r="R144" s="3"/>
+      <c r="S144" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -7414,17 +8001,21 @@
       <c r="L145" s="1">
         <v>0</v>
       </c>
-      <c r="M145" s="3"/>
+      <c r="M145" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15230</v>
+      </c>
       <c r="N145" s="3"/>
       <c r="O145" s="3"/>
       <c r="P145" s="3"/>
       <c r="Q145" s="3"/>
-      <c r="R145" s="4">
+      <c r="R145" s="3"/>
+      <c r="S145" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -7461,17 +8052,21 @@
       <c r="L146" s="1">
         <v>0</v>
       </c>
-      <c r="M146" s="3"/>
+      <c r="M146" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N146" s="3"/>
       <c r="O146" s="3"/>
       <c r="P146" s="3"/>
       <c r="Q146" s="3"/>
-      <c r="R146" s="4">
+      <c r="R146" s="3"/>
+      <c r="S146" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -7508,17 +8103,21 @@
       <c r="L147" s="1">
         <v>0</v>
       </c>
-      <c r="M147" s="3"/>
+      <c r="M147" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15154</v>
+      </c>
       <c r="N147" s="3"/>
       <c r="O147" s="3"/>
       <c r="P147" s="3"/>
       <c r="Q147" s="3"/>
-      <c r="R147" s="4">
+      <c r="R147" s="3"/>
+      <c r="S147" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -7555,17 +8154,21 @@
       <c r="L148" s="1">
         <v>0</v>
       </c>
-      <c r="M148" s="3"/>
+      <c r="M148" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N148" s="3"/>
       <c r="O148" s="3"/>
       <c r="P148" s="3"/>
       <c r="Q148" s="3"/>
-      <c r="R148" s="4">
+      <c r="R148" s="3"/>
+      <c r="S148" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -7602,17 +8205,21 @@
       <c r="L149" s="1">
         <v>0</v>
       </c>
-      <c r="M149" s="3"/>
+      <c r="M149" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N149" s="3"/>
       <c r="O149" s="3"/>
       <c r="P149" s="3"/>
       <c r="Q149" s="3"/>
-      <c r="R149" s="4">
+      <c r="R149" s="3"/>
+      <c r="S149" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -7649,17 +8256,21 @@
       <c r="L150" s="1">
         <v>0</v>
       </c>
-      <c r="M150" s="3"/>
+      <c r="M150" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N150" s="3"/>
       <c r="O150" s="3"/>
       <c r="P150" s="3"/>
       <c r="Q150" s="3"/>
-      <c r="R150" s="4">
+      <c r="R150" s="3"/>
+      <c r="S150" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -7696,17 +8307,21 @@
       <c r="L151" s="1">
         <v>0</v>
       </c>
-      <c r="M151" s="3"/>
+      <c r="M151" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N151" s="3"/>
       <c r="O151" s="3"/>
       <c r="P151" s="3"/>
       <c r="Q151" s="3"/>
-      <c r="R151" s="4">
+      <c r="R151" s="3"/>
+      <c r="S151" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -7743,17 +8358,21 @@
       <c r="L152" s="1">
         <v>0</v>
       </c>
-      <c r="M152" s="3"/>
+      <c r="M152" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N152" s="3"/>
       <c r="O152" s="3"/>
       <c r="P152" s="3"/>
       <c r="Q152" s="3"/>
-      <c r="R152" s="4">
+      <c r="R152" s="3"/>
+      <c r="S152" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -7790,17 +8409,21 @@
       <c r="L153" s="1">
         <v>0</v>
       </c>
-      <c r="M153" s="3"/>
+      <c r="M153" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N153" s="3"/>
       <c r="O153" s="3"/>
       <c r="P153" s="3"/>
       <c r="Q153" s="3"/>
-      <c r="R153" s="4">
+      <c r="R153" s="3"/>
+      <c r="S153" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -7837,17 +8460,21 @@
       <c r="L154" s="1">
         <v>0</v>
       </c>
-      <c r="M154" s="3"/>
+      <c r="M154" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N154" s="3"/>
       <c r="O154" s="3"/>
       <c r="P154" s="3"/>
       <c r="Q154" s="3"/>
-      <c r="R154" s="4">
+      <c r="R154" s="3"/>
+      <c r="S154" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -7884,17 +8511,21 @@
       <c r="L155" s="1">
         <v>0</v>
       </c>
-      <c r="M155" s="3"/>
+      <c r="M155" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13184</v>
+      </c>
       <c r="N155" s="3"/>
       <c r="O155" s="3"/>
       <c r="P155" s="3"/>
       <c r="Q155" s="3"/>
-      <c r="R155" s="4">
+      <c r="R155" s="3"/>
+      <c r="S155" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -7931,17 +8562,21 @@
       <c r="L156" s="1">
         <v>0</v>
       </c>
-      <c r="M156" s="3"/>
+      <c r="M156" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13138</v>
+      </c>
       <c r="N156" s="3"/>
       <c r="O156" s="3"/>
       <c r="P156" s="3"/>
       <c r="Q156" s="3"/>
-      <c r="R156" s="4">
+      <c r="R156" s="3"/>
+      <c r="S156" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -7978,17 +8613,21 @@
       <c r="L157" s="1">
         <v>0</v>
       </c>
-      <c r="M157" s="3"/>
+      <c r="M157" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N157" s="3"/>
       <c r="O157" s="3"/>
       <c r="P157" s="3"/>
       <c r="Q157" s="3"/>
-      <c r="R157" s="4">
+      <c r="R157" s="3"/>
+      <c r="S157" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -8025,17 +8664,21 @@
       <c r="L158" s="1">
         <v>0</v>
       </c>
-      <c r="M158" s="3"/>
+      <c r="M158" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N158" s="3"/>
       <c r="O158" s="3"/>
       <c r="P158" s="3"/>
       <c r="Q158" s="3"/>
-      <c r="R158" s="4">
+      <c r="R158" s="3"/>
+      <c r="S158" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -8072,17 +8715,21 @@
       <c r="L159" s="1">
         <v>0</v>
       </c>
-      <c r="M159" s="3"/>
+      <c r="M159" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N159" s="3"/>
       <c r="O159" s="3"/>
       <c r="P159" s="3"/>
       <c r="Q159" s="3"/>
-      <c r="R159" s="4">
+      <c r="R159" s="3"/>
+      <c r="S159" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -8119,17 +8766,21 @@
       <c r="L160" s="1">
         <v>0</v>
       </c>
-      <c r="M160" s="3"/>
+      <c r="M160" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N160" s="3"/>
       <c r="O160" s="3"/>
       <c r="P160" s="3"/>
       <c r="Q160" s="3"/>
-      <c r="R160" s="4">
+      <c r="R160" s="3"/>
+      <c r="S160" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -8166,17 +8817,21 @@
       <c r="L161" s="1">
         <v>0</v>
       </c>
-      <c r="M161" s="3"/>
+      <c r="M161" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N161" s="3"/>
       <c r="O161" s="3"/>
       <c r="P161" s="3"/>
       <c r="Q161" s="3"/>
-      <c r="R161" s="4">
+      <c r="R161" s="3"/>
+      <c r="S161" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -8213,17 +8868,21 @@
       <c r="L162" s="1">
         <v>0</v>
       </c>
-      <c r="M162" s="3"/>
+      <c r="M162" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N162" s="3"/>
       <c r="O162" s="3"/>
       <c r="P162" s="3"/>
       <c r="Q162" s="3"/>
-      <c r="R162" s="4">
+      <c r="R162" s="3"/>
+      <c r="S162" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -8260,17 +8919,21 @@
       <c r="L163" s="1">
         <v>0</v>
       </c>
-      <c r="M163" s="3"/>
+      <c r="M163" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N163" s="3"/>
       <c r="O163" s="3"/>
       <c r="P163" s="3"/>
       <c r="Q163" s="3"/>
-      <c r="R163" s="4">
+      <c r="R163" s="3"/>
+      <c r="S163" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -8307,17 +8970,21 @@
       <c r="L164" s="1">
         <v>0</v>
       </c>
-      <c r="M164" s="3"/>
+      <c r="M164" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13079</v>
+      </c>
       <c r="N164" s="3"/>
       <c r="O164" s="3"/>
       <c r="P164" s="3"/>
       <c r="Q164" s="3"/>
-      <c r="R164" s="4">
+      <c r="R164" s="3"/>
+      <c r="S164" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -8354,17 +9021,21 @@
       <c r="L165" s="1">
         <v>0</v>
       </c>
-      <c r="M165" s="3"/>
+      <c r="M165" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13245</v>
+      </c>
       <c r="N165" s="3"/>
       <c r="O165" s="3"/>
       <c r="P165" s="3"/>
       <c r="Q165" s="3"/>
-      <c r="R165" s="4">
+      <c r="R165" s="3"/>
+      <c r="S165" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -8401,17 +9072,21 @@
       <c r="L166" s="1">
         <v>0</v>
       </c>
-      <c r="M166" s="3"/>
+      <c r="M166" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13230</v>
+      </c>
       <c r="N166" s="3"/>
       <c r="O166" s="3"/>
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
-      <c r="R166" s="4">
+      <c r="R166" s="3"/>
+      <c r="S166" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -8448,17 +9123,21 @@
       <c r="L167" s="1">
         <v>0</v>
       </c>
-      <c r="M167" s="3"/>
+      <c r="M167" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13245</v>
+      </c>
       <c r="N167" s="3"/>
       <c r="O167" s="3"/>
       <c r="P167" s="3"/>
       <c r="Q167" s="3"/>
-      <c r="R167" s="4">
+      <c r="R167" s="3"/>
+      <c r="S167" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -8495,17 +9174,21 @@
       <c r="L168" s="1">
         <v>0</v>
       </c>
-      <c r="M168" s="3"/>
+      <c r="M168" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N168" s="3"/>
       <c r="O168" s="3"/>
       <c r="P168" s="3"/>
       <c r="Q168" s="3"/>
-      <c r="R168" s="4">
+      <c r="R168" s="3"/>
+      <c r="S168" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -8542,17 +9225,21 @@
       <c r="L169" s="1">
         <v>0</v>
       </c>
-      <c r="M169" s="3"/>
+      <c r="M169" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N169" s="3"/>
       <c r="O169" s="3"/>
       <c r="P169" s="3"/>
       <c r="Q169" s="3"/>
-      <c r="R169" s="4">
+      <c r="R169" s="3"/>
+      <c r="S169" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -8589,17 +9276,21 @@
       <c r="L170" s="1">
         <v>0</v>
       </c>
-      <c r="M170" s="3"/>
+      <c r="M170" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N170" s="3"/>
       <c r="O170" s="3"/>
       <c r="P170" s="3"/>
       <c r="Q170" s="3"/>
-      <c r="R170" s="4">
+      <c r="R170" s="3"/>
+      <c r="S170" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -8636,17 +9327,21 @@
       <c r="L171" s="1">
         <v>0</v>
       </c>
-      <c r="M171" s="3"/>
+      <c r="M171" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N171" s="3"/>
       <c r="O171" s="3"/>
       <c r="P171" s="3"/>
       <c r="Q171" s="3"/>
-      <c r="R171" s="4">
+      <c r="R171" s="3"/>
+      <c r="S171" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -8683,17 +9378,21 @@
       <c r="L172" s="1">
         <v>0</v>
       </c>
-      <c r="M172" s="3"/>
+      <c r="M172" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N172" s="3"/>
       <c r="O172" s="3"/>
       <c r="P172" s="3"/>
       <c r="Q172" s="3"/>
-      <c r="R172" s="4">
+      <c r="R172" s="3"/>
+      <c r="S172" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -8730,17 +9429,21 @@
       <c r="L173" s="1">
         <v>0</v>
       </c>
-      <c r="M173" s="3"/>
+      <c r="M173" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N173" s="3"/>
       <c r="O173" s="3"/>
       <c r="P173" s="3"/>
       <c r="Q173" s="3"/>
-      <c r="R173" s="4">
+      <c r="R173" s="3"/>
+      <c r="S173" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -8777,17 +9480,21 @@
       <c r="L174" s="1">
         <v>0</v>
       </c>
-      <c r="M174" s="3"/>
+      <c r="M174" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N174" s="3"/>
       <c r="O174" s="3"/>
       <c r="P174" s="3"/>
       <c r="Q174" s="3"/>
-      <c r="R174" s="4">
+      <c r="R174" s="3"/>
+      <c r="S174" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -8824,17 +9531,21 @@
       <c r="L175" s="1">
         <v>0</v>
       </c>
-      <c r="M175" s="3"/>
+      <c r="M175" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N175" s="3"/>
       <c r="O175" s="3"/>
       <c r="P175" s="3"/>
       <c r="Q175" s="3"/>
-      <c r="R175" s="4">
+      <c r="R175" s="3"/>
+      <c r="S175" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -8871,17 +9582,21 @@
       <c r="L176" s="1">
         <v>0</v>
       </c>
-      <c r="M176" s="3"/>
+      <c r="M176" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N176" s="3"/>
       <c r="O176" s="3"/>
       <c r="P176" s="3"/>
       <c r="Q176" s="3"/>
-      <c r="R176" s="4">
+      <c r="R176" s="3"/>
+      <c r="S176" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -8918,17 +9633,21 @@
       <c r="L177" s="1">
         <v>0</v>
       </c>
-      <c r="M177" s="3"/>
+      <c r="M177" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N177" s="3"/>
       <c r="O177" s="3"/>
       <c r="P177" s="3"/>
       <c r="Q177" s="3"/>
-      <c r="R177" s="4">
+      <c r="R177" s="3"/>
+      <c r="S177" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -8965,17 +9684,21 @@
       <c r="L178" s="1">
         <v>0</v>
       </c>
-      <c r="M178" s="3"/>
+      <c r="M178" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N178" s="3"/>
       <c r="O178" s="3"/>
       <c r="P178" s="3"/>
       <c r="Q178" s="3"/>
-      <c r="R178" s="4">
+      <c r="R178" s="3"/>
+      <c r="S178" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -9012,17 +9735,21 @@
       <c r="L179" s="1">
         <v>0</v>
       </c>
-      <c r="M179" s="3"/>
+      <c r="M179" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N179" s="3"/>
       <c r="O179" s="3"/>
       <c r="P179" s="3"/>
       <c r="Q179" s="3"/>
-      <c r="R179" s="4">
+      <c r="R179" s="3"/>
+      <c r="S179" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -9059,17 +9786,21 @@
       <c r="L180" s="1">
         <v>0</v>
       </c>
-      <c r="M180" s="3"/>
+      <c r="M180" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N180" s="3"/>
       <c r="O180" s="3"/>
       <c r="P180" s="3"/>
       <c r="Q180" s="3"/>
-      <c r="R180" s="4">
+      <c r="R180" s="3"/>
+      <c r="S180" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -9106,17 +9837,21 @@
       <c r="L181" s="1">
         <v>0</v>
       </c>
-      <c r="M181" s="3"/>
+      <c r="M181" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N181" s="3"/>
       <c r="O181" s="3"/>
       <c r="P181" s="3"/>
       <c r="Q181" s="3"/>
-      <c r="R181" s="4">
+      <c r="R181" s="3"/>
+      <c r="S181" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -9153,17 +9888,21 @@
       <c r="L182" s="1">
         <v>0</v>
       </c>
-      <c r="M182" s="3"/>
+      <c r="M182" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
       <c r="P182" s="3"/>
       <c r="Q182" s="3"/>
-      <c r="R182" s="4">
+      <c r="R182" s="3"/>
+      <c r="S182" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -9200,17 +9939,21 @@
       <c r="L183" s="1">
         <v>0</v>
       </c>
-      <c r="M183" s="3"/>
+      <c r="M183" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N183" s="3"/>
       <c r="O183" s="3"/>
       <c r="P183" s="3"/>
       <c r="Q183" s="3"/>
-      <c r="R183" s="4">
+      <c r="R183" s="3"/>
+      <c r="S183" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -9247,17 +9990,21 @@
       <c r="L184" s="1">
         <v>0</v>
       </c>
-      <c r="M184" s="3"/>
+      <c r="M184" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N184" s="3"/>
       <c r="O184" s="3"/>
       <c r="P184" s="3"/>
       <c r="Q184" s="3"/>
-      <c r="R184" s="4">
+      <c r="R184" s="3"/>
+      <c r="S184" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -9294,17 +10041,21 @@
       <c r="L185" s="1">
         <v>0</v>
       </c>
-      <c r="M185" s="3"/>
+      <c r="M185" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N185" s="3"/>
       <c r="O185" s="3"/>
       <c r="P185" s="3"/>
       <c r="Q185" s="3"/>
-      <c r="R185" s="4">
+      <c r="R185" s="3"/>
+      <c r="S185" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -9341,17 +10092,21 @@
       <c r="L186" s="1">
         <v>0</v>
       </c>
-      <c r="M186" s="3"/>
+      <c r="M186" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N186" s="3"/>
       <c r="O186" s="3"/>
       <c r="P186" s="3"/>
       <c r="Q186" s="3"/>
-      <c r="R186" s="4">
+      <c r="R186" s="3"/>
+      <c r="S186" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -9388,17 +10143,21 @@
       <c r="L187" s="1">
         <v>0</v>
       </c>
-      <c r="M187" s="3"/>
+      <c r="M187" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N187" s="3"/>
       <c r="O187" s="3"/>
       <c r="P187" s="3"/>
       <c r="Q187" s="3"/>
-      <c r="R187" s="4">
+      <c r="R187" s="3"/>
+      <c r="S187" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -9435,17 +10194,21 @@
       <c r="L188" s="1">
         <v>0</v>
       </c>
-      <c r="M188" s="3"/>
+      <c r="M188" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N188" s="3"/>
       <c r="O188" s="3"/>
       <c r="P188" s="3"/>
       <c r="Q188" s="3"/>
-      <c r="R188" s="4">
+      <c r="R188" s="3"/>
+      <c r="S188" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -9482,17 +10245,21 @@
       <c r="L189" s="1">
         <v>0</v>
       </c>
-      <c r="M189" s="3"/>
+      <c r="M189" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N189" s="3"/>
       <c r="O189" s="3"/>
       <c r="P189" s="3"/>
       <c r="Q189" s="3"/>
-      <c r="R189" s="4">
+      <c r="R189" s="3"/>
+      <c r="S189" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -9529,17 +10296,21 @@
       <c r="L190" s="1">
         <v>0</v>
       </c>
-      <c r="M190" s="3"/>
+      <c r="M190" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N190" s="3"/>
       <c r="O190" s="3"/>
       <c r="P190" s="3"/>
       <c r="Q190" s="3"/>
-      <c r="R190" s="4">
+      <c r="R190" s="3"/>
+      <c r="S190" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -9576,17 +10347,21 @@
       <c r="L191" s="1">
         <v>0</v>
       </c>
-      <c r="M191" s="3"/>
+      <c r="M191" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N191" s="3"/>
       <c r="O191" s="3"/>
       <c r="P191" s="3"/>
       <c r="Q191" s="3"/>
-      <c r="R191" s="4">
+      <c r="R191" s="3"/>
+      <c r="S191" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -9623,17 +10398,21 @@
       <c r="L192" s="1">
         <v>0</v>
       </c>
-      <c r="M192" s="3"/>
+      <c r="M192" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N192" s="3"/>
       <c r="O192" s="3"/>
       <c r="P192" s="3"/>
       <c r="Q192" s="3"/>
-      <c r="R192" s="4">
+      <c r="R192" s="3"/>
+      <c r="S192" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -9670,17 +10449,21 @@
       <c r="L193" s="1">
         <v>0</v>
       </c>
-      <c r="M193" s="3"/>
+      <c r="M193" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N193" s="3"/>
       <c r="O193" s="3"/>
       <c r="P193" s="3"/>
       <c r="Q193" s="3"/>
-      <c r="R193" s="4">
+      <c r="R193" s="3"/>
+      <c r="S193" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -9717,17 +10500,21 @@
       <c r="L194" s="1">
         <v>0</v>
       </c>
-      <c r="M194" s="3"/>
+      <c r="M194" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N194" s="3"/>
       <c r="O194" s="3"/>
       <c r="P194" s="3"/>
       <c r="Q194" s="3"/>
-      <c r="R194" s="4">
+      <c r="R194" s="3"/>
+      <c r="S194" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -9764,17 +10551,21 @@
       <c r="L195" s="1">
         <v>0</v>
       </c>
-      <c r="M195" s="3"/>
+      <c r="M195" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15244</v>
+      </c>
       <c r="N195" s="3"/>
       <c r="O195" s="3"/>
       <c r="P195" s="3"/>
       <c r="Q195" s="3"/>
-      <c r="R195" s="4">
-        <f t="shared" ref="R195:R258" si="3">1000*M195+300*O195+700*N195+1200*P195+2000*Q195</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R195" s="3"/>
+      <c r="S195" s="4">
+        <f t="shared" ref="S195:S258" si="3">1000*N195+300*P195+700*O195+1200*Q195+2000*R195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -9811,17 +10602,21 @@
       <c r="L196" s="1">
         <v>0</v>
       </c>
-      <c r="M196" s="3"/>
+      <c r="M196" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N196" s="3"/>
       <c r="O196" s="3"/>
       <c r="P196" s="3"/>
       <c r="Q196" s="3"/>
-      <c r="R196" s="4">
+      <c r="R196" s="3"/>
+      <c r="S196" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -9858,17 +10653,21 @@
       <c r="L197" s="1">
         <v>0</v>
       </c>
-      <c r="M197" s="3"/>
+      <c r="M197" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15259</v>
+      </c>
       <c r="N197" s="3"/>
       <c r="O197" s="3"/>
       <c r="P197" s="3"/>
       <c r="Q197" s="3"/>
-      <c r="R197" s="4">
+      <c r="R197" s="3"/>
+      <c r="S197" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -9905,17 +10704,21 @@
       <c r="L198" s="1">
         <v>0</v>
       </c>
-      <c r="M198" s="3"/>
+      <c r="M198" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15244</v>
+      </c>
       <c r="N198" s="3"/>
       <c r="O198" s="3"/>
       <c r="P198" s="3"/>
       <c r="Q198" s="3"/>
-      <c r="R198" s="4">
+      <c r="R198" s="3"/>
+      <c r="S198" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -9952,17 +10755,21 @@
       <c r="L199" s="1">
         <v>0</v>
       </c>
-      <c r="M199" s="3"/>
+      <c r="M199" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15237</v>
+      </c>
       <c r="N199" s="3"/>
       <c r="O199" s="3"/>
       <c r="P199" s="3"/>
       <c r="Q199" s="3"/>
-      <c r="R199" s="4">
+      <c r="R199" s="3"/>
+      <c r="S199" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -9999,17 +10806,21 @@
       <c r="L200" s="1">
         <v>0</v>
       </c>
-      <c r="M200" s="3"/>
+      <c r="M200" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N200" s="3"/>
       <c r="O200" s="3"/>
       <c r="P200" s="3"/>
       <c r="Q200" s="3"/>
-      <c r="R200" s="4">
+      <c r="R200" s="3"/>
+      <c r="S200" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -10046,17 +10857,21 @@
       <c r="L201" s="1">
         <v>0</v>
       </c>
-      <c r="M201" s="3"/>
+      <c r="M201" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N201" s="3"/>
       <c r="O201" s="3"/>
       <c r="P201" s="3"/>
       <c r="Q201" s="3"/>
-      <c r="R201" s="4">
+      <c r="R201" s="3"/>
+      <c r="S201" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -10093,17 +10908,21 @@
       <c r="L202" s="1">
         <v>0</v>
       </c>
-      <c r="M202" s="3"/>
+      <c r="M202" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N202" s="3"/>
       <c r="O202" s="3"/>
       <c r="P202" s="3"/>
       <c r="Q202" s="3"/>
-      <c r="R202" s="4">
+      <c r="R202" s="3"/>
+      <c r="S202" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -10140,17 +10959,21 @@
       <c r="L203" s="1">
         <v>0</v>
       </c>
-      <c r="M203" s="3"/>
+      <c r="M203" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N203" s="3"/>
       <c r="O203" s="3"/>
       <c r="P203" s="3"/>
       <c r="Q203" s="3"/>
-      <c r="R203" s="4">
+      <c r="R203" s="3"/>
+      <c r="S203" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -10187,17 +11010,21 @@
       <c r="L204" s="1">
         <v>0</v>
       </c>
-      <c r="M204" s="3"/>
+      <c r="M204" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15176</v>
+      </c>
       <c r="N204" s="3"/>
       <c r="O204" s="3"/>
       <c r="P204" s="3"/>
       <c r="Q204" s="3"/>
-      <c r="R204" s="4">
+      <c r="R204" s="3"/>
+      <c r="S204" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -10234,17 +11061,21 @@
       <c r="L205" s="1">
         <v>0</v>
       </c>
-      <c r="M205" s="3"/>
+      <c r="M205" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N205" s="3"/>
       <c r="O205" s="3"/>
       <c r="P205" s="3"/>
       <c r="Q205" s="3"/>
-      <c r="R205" s="4">
+      <c r="R205" s="3"/>
+      <c r="S205" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -10281,17 +11112,21 @@
       <c r="L206" s="1">
         <v>0</v>
       </c>
-      <c r="M206" s="3"/>
+      <c r="M206" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N206" s="3"/>
       <c r="O206" s="3"/>
       <c r="P206" s="3"/>
       <c r="Q206" s="3"/>
-      <c r="R206" s="4">
+      <c r="R206" s="3"/>
+      <c r="S206" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -10328,17 +11163,21 @@
       <c r="L207" s="1">
         <v>0</v>
       </c>
-      <c r="M207" s="3"/>
+      <c r="M207" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N207" s="3"/>
       <c r="O207" s="3"/>
       <c r="P207" s="3"/>
       <c r="Q207" s="3"/>
-      <c r="R207" s="4">
+      <c r="R207" s="3"/>
+      <c r="S207" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -10375,17 +11214,21 @@
       <c r="L208" s="1">
         <v>0</v>
       </c>
-      <c r="M208" s="3"/>
+      <c r="M208" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N208" s="3"/>
       <c r="O208" s="3"/>
       <c r="P208" s="3"/>
       <c r="Q208" s="3"/>
-      <c r="R208" s="4">
+      <c r="R208" s="3"/>
+      <c r="S208" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -10422,17 +11265,21 @@
       <c r="L209" s="1">
         <v>0</v>
       </c>
-      <c r="M209" s="3"/>
+      <c r="M209" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N209" s="3"/>
       <c r="O209" s="3"/>
       <c r="P209" s="3"/>
       <c r="Q209" s="3"/>
-      <c r="R209" s="4">
+      <c r="R209" s="3"/>
+      <c r="S209" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -10469,17 +11316,21 @@
       <c r="L210" s="1">
         <v>0</v>
       </c>
-      <c r="M210" s="3"/>
+      <c r="M210" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15259</v>
+      </c>
       <c r="N210" s="3"/>
       <c r="O210" s="3"/>
       <c r="P210" s="3"/>
       <c r="Q210" s="3"/>
-      <c r="R210" s="4">
+      <c r="R210" s="3"/>
+      <c r="S210" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -10516,17 +11367,21 @@
       <c r="L211" s="1">
         <v>0</v>
       </c>
-      <c r="M211" s="3"/>
+      <c r="M211" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N211" s="3"/>
       <c r="O211" s="3"/>
       <c r="P211" s="3"/>
       <c r="Q211" s="3"/>
-      <c r="R211" s="4">
+      <c r="R211" s="3"/>
+      <c r="S211" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -10563,17 +11418,21 @@
       <c r="L212" s="1">
         <v>0</v>
       </c>
-      <c r="M212" s="3"/>
+      <c r="M212" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N212" s="3"/>
       <c r="O212" s="3"/>
       <c r="P212" s="3"/>
       <c r="Q212" s="3"/>
-      <c r="R212" s="4">
+      <c r="R212" s="3"/>
+      <c r="S212" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -10610,17 +11469,21 @@
       <c r="L213" s="1">
         <v>0</v>
       </c>
-      <c r="M213" s="3"/>
+      <c r="M213" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N213" s="3"/>
       <c r="O213" s="3"/>
       <c r="P213" s="3"/>
       <c r="Q213" s="3"/>
-      <c r="R213" s="4">
+      <c r="R213" s="3"/>
+      <c r="S213" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -10657,17 +11520,21 @@
       <c r="L214" s="1">
         <v>0</v>
       </c>
-      <c r="M214" s="3"/>
+      <c r="M214" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N214" s="3"/>
       <c r="O214" s="3"/>
       <c r="P214" s="3"/>
       <c r="Q214" s="3"/>
-      <c r="R214" s="4">
+      <c r="R214" s="3"/>
+      <c r="S214" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -10704,17 +11571,21 @@
       <c r="L215" s="1">
         <v>0</v>
       </c>
-      <c r="M215" s="3"/>
+      <c r="M215" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N215" s="3"/>
       <c r="O215" s="3"/>
       <c r="P215" s="3"/>
       <c r="Q215" s="3"/>
-      <c r="R215" s="4">
+      <c r="R215" s="3"/>
+      <c r="S215" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -10751,17 +11622,21 @@
       <c r="L216" s="1">
         <v>0</v>
       </c>
-      <c r="M216" s="3"/>
+      <c r="M216" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N216" s="3"/>
       <c r="O216" s="3"/>
       <c r="P216" s="3"/>
       <c r="Q216" s="3"/>
-      <c r="R216" s="4">
+      <c r="R216" s="3"/>
+      <c r="S216" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -10798,17 +11673,21 @@
       <c r="L217" s="1">
         <v>0</v>
       </c>
-      <c r="M217" s="3"/>
+      <c r="M217" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17277</v>
+      </c>
       <c r="N217" s="3"/>
       <c r="O217" s="3"/>
       <c r="P217" s="3"/>
       <c r="Q217" s="3"/>
-      <c r="R217" s="4">
+      <c r="R217" s="3"/>
+      <c r="S217" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -10845,17 +11724,21 @@
       <c r="L218" s="1">
         <v>0</v>
       </c>
-      <c r="M218" s="3"/>
+      <c r="M218" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17255</v>
+      </c>
       <c r="N218" s="3"/>
       <c r="O218" s="3"/>
       <c r="P218" s="3"/>
       <c r="Q218" s="3"/>
-      <c r="R218" s="4">
+      <c r="R218" s="3"/>
+      <c r="S218" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -10892,17 +11775,21 @@
       <c r="L219" s="1">
         <v>0</v>
       </c>
-      <c r="M219" s="3"/>
+      <c r="M219" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17281</v>
+      </c>
       <c r="N219" s="3"/>
       <c r="O219" s="3"/>
       <c r="P219" s="3"/>
       <c r="Q219" s="3"/>
-      <c r="R219" s="4">
+      <c r="R219" s="3"/>
+      <c r="S219" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -10939,17 +11826,21 @@
       <c r="L220" s="1">
         <v>0</v>
       </c>
-      <c r="M220" s="3"/>
+      <c r="M220" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17277</v>
+      </c>
       <c r="N220" s="3"/>
       <c r="O220" s="3"/>
       <c r="P220" s="3"/>
       <c r="Q220" s="3"/>
-      <c r="R220" s="4">
+      <c r="R220" s="3"/>
+      <c r="S220" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -10986,17 +11877,21 @@
       <c r="L221" s="1">
         <v>0</v>
       </c>
-      <c r="M221" s="3"/>
+      <c r="M221" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17270</v>
+      </c>
       <c r="N221" s="3"/>
       <c r="O221" s="3"/>
       <c r="P221" s="3"/>
       <c r="Q221" s="3"/>
-      <c r="R221" s="4">
+      <c r="R221" s="3"/>
+      <c r="S221" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -11033,17 +11928,21 @@
       <c r="L222" s="1">
         <v>2</v>
       </c>
-      <c r="M222" s="3"/>
+      <c r="M222" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13245</v>
+      </c>
       <c r="N222" s="3"/>
       <c r="O222" s="3"/>
       <c r="P222" s="3"/>
       <c r="Q222" s="3"/>
-      <c r="R222" s="4">
+      <c r="R222" s="3"/>
+      <c r="S222" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -11080,17 +11979,21 @@
       <c r="L223" s="1">
         <v>2</v>
       </c>
-      <c r="M223" s="3"/>
+      <c r="M223" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13153</v>
+      </c>
       <c r="N223" s="3"/>
       <c r="O223" s="3"/>
       <c r="P223" s="3"/>
       <c r="Q223" s="3"/>
-      <c r="R223" s="4">
+      <c r="R223" s="3"/>
+      <c r="S223" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -11127,17 +12030,21 @@
       <c r="L224" s="1">
         <v>2</v>
       </c>
-      <c r="M224" s="3"/>
+      <c r="M224" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N224" s="3"/>
       <c r="O224" s="3"/>
       <c r="P224" s="3"/>
       <c r="Q224" s="3"/>
-      <c r="R224" s="4">
+      <c r="R224" s="3"/>
+      <c r="S224" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -11174,17 +12081,21 @@
       <c r="L225" s="1">
         <v>2</v>
       </c>
-      <c r="M225" s="3"/>
+      <c r="M225" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N225" s="3"/>
       <c r="O225" s="3"/>
       <c r="P225" s="3"/>
       <c r="Q225" s="3"/>
-      <c r="R225" s="4">
+      <c r="R225" s="3"/>
+      <c r="S225" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -11221,17 +12132,21 @@
       <c r="L226" s="1">
         <v>2</v>
       </c>
-      <c r="M226" s="3"/>
+      <c r="M226" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N226" s="3"/>
       <c r="O226" s="3"/>
       <c r="P226" s="3"/>
       <c r="Q226" s="3"/>
-      <c r="R226" s="4">
+      <c r="R226" s="3"/>
+      <c r="S226" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -11268,17 +12183,21 @@
       <c r="L227" s="1">
         <v>2</v>
       </c>
-      <c r="M227" s="3"/>
+      <c r="M227" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N227" s="3"/>
       <c r="O227" s="3"/>
       <c r="P227" s="3"/>
       <c r="Q227" s="3"/>
-      <c r="R227" s="4">
+      <c r="R227" s="3"/>
+      <c r="S227" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -11315,17 +12234,21 @@
       <c r="L228" s="1">
         <v>2</v>
       </c>
-      <c r="M228" s="3"/>
+      <c r="M228" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13169</v>
+      </c>
       <c r="N228" s="3"/>
       <c r="O228" s="3"/>
       <c r="P228" s="3"/>
       <c r="Q228" s="3"/>
-      <c r="R228" s="4">
+      <c r="R228" s="3"/>
+      <c r="S228" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -11362,17 +12285,21 @@
       <c r="L229" s="1">
         <v>2</v>
       </c>
-      <c r="M229" s="3"/>
+      <c r="M229" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N229" s="3"/>
       <c r="O229" s="3"/>
       <c r="P229" s="3"/>
       <c r="Q229" s="3"/>
-      <c r="R229" s="4">
+      <c r="R229" s="3"/>
+      <c r="S229" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -11409,17 +12336,21 @@
       <c r="L230" s="1">
         <v>2</v>
       </c>
-      <c r="M230" s="3"/>
+      <c r="M230" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N230" s="3"/>
       <c r="O230" s="3"/>
       <c r="P230" s="3"/>
       <c r="Q230" s="3"/>
-      <c r="R230" s="4">
+      <c r="R230" s="3"/>
+      <c r="S230" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -11456,17 +12387,21 @@
       <c r="L231" s="1">
         <v>2</v>
       </c>
-      <c r="M231" s="3"/>
+      <c r="M231" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13274</v>
+      </c>
       <c r="N231" s="3"/>
       <c r="O231" s="3"/>
       <c r="P231" s="3"/>
       <c r="Q231" s="3"/>
-      <c r="R231" s="4">
+      <c r="R231" s="3"/>
+      <c r="S231" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -11503,17 +12438,21 @@
       <c r="L232" s="1">
         <v>2</v>
       </c>
-      <c r="M232" s="3"/>
+      <c r="M232" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N232" s="3"/>
       <c r="O232" s="3"/>
       <c r="P232" s="3"/>
       <c r="Q232" s="3"/>
-      <c r="R232" s="4">
+      <c r="R232" s="3"/>
+      <c r="S232" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -11550,17 +12489,21 @@
       <c r="L233" s="1">
         <v>2</v>
       </c>
-      <c r="M233" s="3"/>
+      <c r="M233" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N233" s="3"/>
       <c r="O233" s="3"/>
       <c r="P233" s="3"/>
       <c r="Q233" s="3"/>
-      <c r="R233" s="4">
+      <c r="R233" s="3"/>
+      <c r="S233" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -11597,17 +12540,21 @@
       <c r="L234" s="1">
         <v>2</v>
       </c>
-      <c r="M234" s="3"/>
+      <c r="M234" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N234" s="3"/>
       <c r="O234" s="3"/>
       <c r="P234" s="3"/>
       <c r="Q234" s="3"/>
-      <c r="R234" s="4">
+      <c r="R234" s="3"/>
+      <c r="S234" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -11644,17 +12591,21 @@
       <c r="L235" s="1">
         <v>2</v>
       </c>
-      <c r="M235" s="3"/>
+      <c r="M235" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N235" s="3"/>
       <c r="O235" s="3"/>
       <c r="P235" s="3"/>
       <c r="Q235" s="3"/>
-      <c r="R235" s="4">
+      <c r="R235" s="3"/>
+      <c r="S235" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -11691,17 +12642,21 @@
       <c r="L236" s="1">
         <v>2</v>
       </c>
-      <c r="M236" s="3"/>
+      <c r="M236" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13200</v>
+      </c>
       <c r="N236" s="3"/>
       <c r="O236" s="3"/>
       <c r="P236" s="3"/>
       <c r="Q236" s="3"/>
-      <c r="R236" s="4">
+      <c r="R236" s="3"/>
+      <c r="S236" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -11738,17 +12693,21 @@
       <c r="L237" s="1">
         <v>2</v>
       </c>
-      <c r="M237" s="3"/>
+      <c r="M237" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N237" s="3"/>
       <c r="O237" s="3"/>
       <c r="P237" s="3"/>
       <c r="Q237" s="3"/>
-      <c r="R237" s="4">
+      <c r="R237" s="3"/>
+      <c r="S237" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -11785,17 +12744,21 @@
       <c r="L238" s="1">
         <v>2</v>
       </c>
-      <c r="M238" s="3"/>
+      <c r="M238" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N238" s="3"/>
       <c r="O238" s="3"/>
       <c r="P238" s="3"/>
       <c r="Q238" s="3"/>
-      <c r="R238" s="4">
+      <c r="R238" s="3"/>
+      <c r="S238" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -11832,17 +12795,21 @@
       <c r="L239" s="1">
         <v>2</v>
       </c>
-      <c r="M239" s="3"/>
+      <c r="M239" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N239" s="3"/>
       <c r="O239" s="3"/>
       <c r="P239" s="3"/>
       <c r="Q239" s="3"/>
-      <c r="R239" s="4">
+      <c r="R239" s="3"/>
+      <c r="S239" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -11879,17 +12846,21 @@
       <c r="L240" s="1">
         <v>2</v>
       </c>
-      <c r="M240" s="3"/>
+      <c r="M240" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N240" s="3"/>
       <c r="O240" s="3"/>
       <c r="P240" s="3"/>
       <c r="Q240" s="3"/>
-      <c r="R240" s="4">
+      <c r="R240" s="3"/>
+      <c r="S240" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -11926,17 +12897,21 @@
       <c r="L241" s="1">
         <v>2</v>
       </c>
-      <c r="M241" s="3"/>
+      <c r="M241" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>13259</v>
+      </c>
       <c r="N241" s="3"/>
       <c r="O241" s="3"/>
       <c r="P241" s="3"/>
       <c r="Q241" s="3"/>
-      <c r="R241" s="4">
+      <c r="R241" s="3"/>
+      <c r="S241" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -11973,17 +12948,21 @@
       <c r="L242" s="1">
         <v>3</v>
       </c>
-      <c r="M242" s="3"/>
+      <c r="M242" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N242" s="3"/>
       <c r="O242" s="3"/>
       <c r="P242" s="3"/>
       <c r="Q242" s="3"/>
-      <c r="R242" s="4">
+      <c r="R242" s="3"/>
+      <c r="S242" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -12020,17 +12999,21 @@
       <c r="L243" s="1">
         <v>3</v>
       </c>
-      <c r="M243" s="3"/>
+      <c r="M243" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N243" s="3"/>
       <c r="O243" s="3"/>
       <c r="P243" s="3"/>
       <c r="Q243" s="3"/>
-      <c r="R243" s="4">
+      <c r="R243" s="3"/>
+      <c r="S243" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -12067,17 +13050,21 @@
       <c r="L244" s="1">
         <v>3</v>
       </c>
-      <c r="M244" s="3"/>
+      <c r="M244" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N244" s="3"/>
       <c r="O244" s="3"/>
       <c r="P244" s="3"/>
       <c r="Q244" s="3"/>
-      <c r="R244" s="4">
+      <c r="R244" s="3"/>
+      <c r="S244" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -12114,17 +13101,21 @@
       <c r="L245" s="1">
         <v>3</v>
       </c>
-      <c r="M245" s="3"/>
+      <c r="M245" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N245" s="3"/>
       <c r="O245" s="3"/>
       <c r="P245" s="3"/>
       <c r="Q245" s="3"/>
-      <c r="R245" s="4">
+      <c r="R245" s="3"/>
+      <c r="S245" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -12161,17 +13152,21 @@
       <c r="L246" s="1">
         <v>3</v>
       </c>
-      <c r="M246" s="3"/>
+      <c r="M246" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N246" s="3"/>
       <c r="O246" s="3"/>
       <c r="P246" s="3"/>
       <c r="Q246" s="3"/>
-      <c r="R246" s="4">
+      <c r="R246" s="3"/>
+      <c r="S246" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -12208,17 +13203,21 @@
       <c r="L247" s="1">
         <v>3</v>
       </c>
-      <c r="M247" s="3"/>
+      <c r="M247" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N247" s="3"/>
       <c r="O247" s="3"/>
       <c r="P247" s="3"/>
       <c r="Q247" s="3"/>
-      <c r="R247" s="4">
+      <c r="R247" s="3"/>
+      <c r="S247" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -12255,17 +13254,21 @@
       <c r="L248" s="1">
         <v>3</v>
       </c>
-      <c r="M248" s="3"/>
+      <c r="M248" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N248" s="3"/>
       <c r="O248" s="3"/>
       <c r="P248" s="3"/>
       <c r="Q248" s="3"/>
-      <c r="R248" s="4">
+      <c r="R248" s="3"/>
+      <c r="S248" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -12302,17 +13305,21 @@
       <c r="L249" s="1">
         <v>3</v>
       </c>
-      <c r="M249" s="3"/>
+      <c r="M249" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N249" s="3"/>
       <c r="O249" s="3"/>
       <c r="P249" s="3"/>
       <c r="Q249" s="3"/>
-      <c r="R249" s="4">
+      <c r="R249" s="3"/>
+      <c r="S249" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -12349,17 +13356,21 @@
       <c r="L250" s="1">
         <v>3</v>
       </c>
-      <c r="M250" s="3"/>
+      <c r="M250" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N250" s="3"/>
       <c r="O250" s="3"/>
       <c r="P250" s="3"/>
       <c r="Q250" s="3"/>
-      <c r="R250" s="4">
+      <c r="R250" s="3"/>
+      <c r="S250" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -12396,17 +13407,21 @@
       <c r="L251" s="1">
         <v>3</v>
       </c>
-      <c r="M251" s="3"/>
+      <c r="M251" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15281</v>
+      </c>
       <c r="N251" s="3"/>
       <c r="O251" s="3"/>
       <c r="P251" s="3"/>
       <c r="Q251" s="3"/>
-      <c r="R251" s="4">
+      <c r="R251" s="3"/>
+      <c r="S251" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -12443,17 +13458,21 @@
       <c r="L252" s="1">
         <v>3</v>
       </c>
-      <c r="M252" s="3"/>
+      <c r="M252" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N252" s="3"/>
       <c r="O252" s="3"/>
       <c r="P252" s="3"/>
       <c r="Q252" s="3"/>
-      <c r="R252" s="4">
+      <c r="R252" s="3"/>
+      <c r="S252" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -12490,17 +13509,21 @@
       <c r="L253" s="1">
         <v>3</v>
       </c>
-      <c r="M253" s="3"/>
+      <c r="M253" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N253" s="3"/>
       <c r="O253" s="3"/>
       <c r="P253" s="3"/>
       <c r="Q253" s="3"/>
-      <c r="R253" s="4">
+      <c r="R253" s="3"/>
+      <c r="S253" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -12537,17 +13560,21 @@
       <c r="L254" s="1">
         <v>3</v>
       </c>
-      <c r="M254" s="3"/>
+      <c r="M254" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15252</v>
+      </c>
       <c r="N254" s="3"/>
       <c r="O254" s="3"/>
       <c r="P254" s="3"/>
       <c r="Q254" s="3"/>
-      <c r="R254" s="4">
+      <c r="R254" s="3"/>
+      <c r="S254" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -12584,17 +13611,21 @@
       <c r="L255" s="1">
         <v>3</v>
       </c>
-      <c r="M255" s="3"/>
+      <c r="M255" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N255" s="3"/>
       <c r="O255" s="3"/>
       <c r="P255" s="3"/>
       <c r="Q255" s="3"/>
-      <c r="R255" s="4">
+      <c r="R255" s="3"/>
+      <c r="S255" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -12631,17 +13662,21 @@
       <c r="L256" s="1">
         <v>3</v>
       </c>
-      <c r="M256" s="3"/>
+      <c r="M256" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N256" s="3"/>
       <c r="O256" s="3"/>
       <c r="P256" s="3"/>
       <c r="Q256" s="3"/>
-      <c r="R256" s="4">
+      <c r="R256" s="3"/>
+      <c r="S256" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -12678,17 +13713,21 @@
       <c r="L257" s="1">
         <v>3</v>
       </c>
-      <c r="M257" s="3"/>
+      <c r="M257" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N257" s="3"/>
       <c r="O257" s="3"/>
       <c r="P257" s="3"/>
       <c r="Q257" s="3"/>
-      <c r="R257" s="4">
+      <c r="R257" s="3"/>
+      <c r="S257" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -12725,17 +13764,21 @@
       <c r="L258" s="1">
         <v>3</v>
       </c>
-      <c r="M258" s="3"/>
+      <c r="M258" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N258" s="3"/>
       <c r="O258" s="3"/>
       <c r="P258" s="3"/>
       <c r="Q258" s="3"/>
-      <c r="R258" s="4">
+      <c r="R258" s="3"/>
+      <c r="S258" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -12772,17 +13815,21 @@
       <c r="L259" s="1">
         <v>3</v>
       </c>
-      <c r="M259" s="3"/>
+      <c r="M259" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15097</v>
+      </c>
       <c r="N259" s="3"/>
       <c r="O259" s="3"/>
       <c r="P259" s="3"/>
       <c r="Q259" s="3"/>
-      <c r="R259" s="4">
-        <f t="shared" ref="R259:R301" si="4">1000*M259+300*O259+700*N259+1200*P259+2000*Q259</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R259" s="3"/>
+      <c r="S259" s="4">
+        <f t="shared" ref="S259:S301" si="4">1000*N259+300*P259+700*O259+1200*Q259+2000*R259</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -12819,17 +13866,21 @@
       <c r="L260" s="1">
         <v>3</v>
       </c>
-      <c r="M260" s="3"/>
+      <c r="M260" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N260" s="3"/>
       <c r="O260" s="3"/>
       <c r="P260" s="3"/>
       <c r="Q260" s="3"/>
-      <c r="R260" s="4">
+      <c r="R260" s="3"/>
+      <c r="S260" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -12866,17 +13917,21 @@
       <c r="L261" s="1">
         <v>3</v>
       </c>
-      <c r="M261" s="3"/>
+      <c r="M261" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N261" s="3"/>
       <c r="O261" s="3"/>
       <c r="P261" s="3"/>
       <c r="Q261" s="3"/>
-      <c r="R261" s="4">
+      <c r="R261" s="3"/>
+      <c r="S261" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -12913,17 +13968,21 @@
       <c r="L262" s="1">
         <v>3</v>
       </c>
-      <c r="M262" s="3"/>
+      <c r="M262" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N262" s="3"/>
       <c r="O262" s="3"/>
       <c r="P262" s="3"/>
       <c r="Q262" s="3"/>
-      <c r="R262" s="4">
+      <c r="R262" s="3"/>
+      <c r="S262" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -12960,17 +14019,21 @@
       <c r="L263" s="1">
         <v>3</v>
       </c>
-      <c r="M263" s="3"/>
+      <c r="M263" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N263" s="3"/>
       <c r="O263" s="3"/>
       <c r="P263" s="3"/>
       <c r="Q263" s="3"/>
-      <c r="R263" s="4">
+      <c r="R263" s="3"/>
+      <c r="S263" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -13007,17 +14070,21 @@
       <c r="L264" s="1">
         <v>3</v>
       </c>
-      <c r="M264" s="3"/>
+      <c r="M264" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N264" s="3"/>
       <c r="O264" s="3"/>
       <c r="P264" s="3"/>
       <c r="Q264" s="3"/>
-      <c r="R264" s="4">
+      <c r="R264" s="3"/>
+      <c r="S264" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -13054,17 +14121,21 @@
       <c r="L265" s="1">
         <v>3</v>
       </c>
-      <c r="M265" s="3"/>
+      <c r="M265" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N265" s="3"/>
       <c r="O265" s="3"/>
       <c r="P265" s="3"/>
       <c r="Q265" s="3"/>
-      <c r="R265" s="4">
+      <c r="R265" s="3"/>
+      <c r="S265" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -13101,17 +14172,21 @@
       <c r="L266" s="1">
         <v>3</v>
       </c>
-      <c r="M266" s="3"/>
+      <c r="M266" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15266</v>
+      </c>
       <c r="N266" s="3"/>
       <c r="O266" s="3"/>
       <c r="P266" s="3"/>
       <c r="Q266" s="3"/>
-      <c r="R266" s="4">
+      <c r="R266" s="3"/>
+      <c r="S266" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -13148,17 +14223,21 @@
       <c r="L267" s="1">
         <v>3</v>
       </c>
-      <c r="M267" s="3"/>
+      <c r="M267" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15177</v>
+      </c>
       <c r="N267" s="3"/>
       <c r="O267" s="3"/>
       <c r="P267" s="3"/>
       <c r="Q267" s="3"/>
-      <c r="R267" s="4">
+      <c r="R267" s="3"/>
+      <c r="S267" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -13195,17 +14274,21 @@
       <c r="L268" s="1">
         <v>3</v>
       </c>
-      <c r="M268" s="3"/>
+      <c r="M268" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15252</v>
+      </c>
       <c r="N268" s="3"/>
       <c r="O268" s="3"/>
       <c r="P268" s="3"/>
       <c r="Q268" s="3"/>
-      <c r="R268" s="4">
+      <c r="R268" s="3"/>
+      <c r="S268" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -13242,17 +14325,21 @@
       <c r="L269" s="1">
         <v>3</v>
       </c>
-      <c r="M269" s="3"/>
+      <c r="M269" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15259</v>
+      </c>
       <c r="N269" s="3"/>
       <c r="O269" s="3"/>
       <c r="P269" s="3"/>
       <c r="Q269" s="3"/>
-      <c r="R269" s="4">
+      <c r="R269" s="3"/>
+      <c r="S269" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -13289,17 +14376,21 @@
       <c r="L270" s="1">
         <v>3</v>
       </c>
-      <c r="M270" s="3"/>
+      <c r="M270" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15274</v>
+      </c>
       <c r="N270" s="3"/>
       <c r="O270" s="3"/>
       <c r="P270" s="3"/>
       <c r="Q270" s="3"/>
-      <c r="R270" s="4">
+      <c r="R270" s="3"/>
+      <c r="S270" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -13336,17 +14427,21 @@
       <c r="L271" s="1">
         <v>3</v>
       </c>
-      <c r="M271" s="3"/>
+      <c r="M271" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>15252</v>
+      </c>
       <c r="N271" s="3"/>
       <c r="O271" s="3"/>
       <c r="P271" s="3"/>
       <c r="Q271" s="3"/>
-      <c r="R271" s="4">
+      <c r="R271" s="3"/>
+      <c r="S271" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -13383,17 +14478,21 @@
       <c r="L272" s="1">
         <v>4</v>
       </c>
-      <c r="M272" s="3"/>
+      <c r="M272" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N272" s="3"/>
       <c r="O272" s="3"/>
       <c r="P272" s="3"/>
       <c r="Q272" s="3"/>
-      <c r="R272" s="4">
+      <c r="R272" s="3"/>
+      <c r="S272" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -13430,17 +14529,21 @@
       <c r="L273" s="1">
         <v>4</v>
       </c>
-      <c r="M273" s="3"/>
+      <c r="M273" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N273" s="3"/>
       <c r="O273" s="3"/>
       <c r="P273" s="3"/>
       <c r="Q273" s="3"/>
-      <c r="R273" s="4">
+      <c r="R273" s="3"/>
+      <c r="S273" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -13477,17 +14580,21 @@
       <c r="L274" s="1">
         <v>4</v>
       </c>
-      <c r="M274" s="3"/>
+      <c r="M274" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17277</v>
+      </c>
       <c r="N274" s="3"/>
       <c r="O274" s="3"/>
       <c r="P274" s="3"/>
       <c r="Q274" s="3"/>
-      <c r="R274" s="4">
+      <c r="R274" s="3"/>
+      <c r="S274" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -13524,17 +14631,21 @@
       <c r="L275" s="1">
         <v>4</v>
       </c>
-      <c r="M275" s="3"/>
+      <c r="M275" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17281</v>
+      </c>
       <c r="N275" s="3"/>
       <c r="O275" s="3"/>
       <c r="P275" s="3"/>
       <c r="Q275" s="3"/>
-      <c r="R275" s="4">
+      <c r="R275" s="3"/>
+      <c r="S275" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -13571,17 +14682,21 @@
       <c r="L276" s="1">
         <v>4</v>
       </c>
-      <c r="M276" s="3"/>
+      <c r="M276" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>16958</v>
+      </c>
       <c r="N276" s="3"/>
       <c r="O276" s="3"/>
       <c r="P276" s="3"/>
       <c r="Q276" s="3"/>
-      <c r="R276" s="4">
+      <c r="R276" s="3"/>
+      <c r="S276" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -13618,17 +14733,21 @@
       <c r="L277" s="1">
         <v>4</v>
       </c>
-      <c r="M277" s="3"/>
+      <c r="M277" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N277" s="3"/>
       <c r="O277" s="3"/>
       <c r="P277" s="3"/>
       <c r="Q277" s="3"/>
-      <c r="R277" s="4">
+      <c r="R277" s="3"/>
+      <c r="S277" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -13665,17 +14784,21 @@
       <c r="L278" s="1">
         <v>4</v>
       </c>
-      <c r="M278" s="3"/>
+      <c r="M278" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N278" s="3"/>
       <c r="O278" s="3"/>
       <c r="P278" s="3"/>
       <c r="Q278" s="3"/>
-      <c r="R278" s="4">
+      <c r="R278" s="3"/>
+      <c r="S278" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -13712,17 +14835,21 @@
       <c r="L279" s="1">
         <v>4</v>
       </c>
-      <c r="M279" s="3"/>
+      <c r="M279" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N279" s="3"/>
       <c r="O279" s="3"/>
       <c r="P279" s="3"/>
       <c r="Q279" s="3"/>
-      <c r="R279" s="4">
+      <c r="R279" s="3"/>
+      <c r="S279" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -13759,17 +14886,21 @@
       <c r="L280" s="1">
         <v>4</v>
       </c>
-      <c r="M280" s="3"/>
+      <c r="M280" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N280" s="3"/>
       <c r="O280" s="3"/>
       <c r="P280" s="3"/>
       <c r="Q280" s="3"/>
-      <c r="R280" s="4">
+      <c r="R280" s="3"/>
+      <c r="S280" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -13806,17 +14937,21 @@
       <c r="L281" s="1">
         <v>4</v>
       </c>
-      <c r="M281" s="3"/>
+      <c r="M281" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>16455</v>
+      </c>
       <c r="N281" s="3"/>
       <c r="O281" s="3"/>
       <c r="P281" s="3"/>
       <c r="Q281" s="3"/>
-      <c r="R281" s="4">
+      <c r="R281" s="3"/>
+      <c r="S281" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -13853,17 +14988,21 @@
       <c r="L282" s="1">
         <v>5</v>
       </c>
-      <c r="M282" s="3"/>
+      <c r="M282" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N282" s="3"/>
       <c r="O282" s="3"/>
       <c r="P282" s="3"/>
       <c r="Q282" s="3"/>
-      <c r="R282" s="4">
+      <c r="R282" s="3"/>
+      <c r="S282" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -13900,17 +15039,21 @@
       <c r="L283" s="1">
         <v>5</v>
       </c>
-      <c r="M283" s="3"/>
+      <c r="M283" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N283" s="3"/>
       <c r="O283" s="3"/>
       <c r="P283" s="3"/>
       <c r="Q283" s="3"/>
-      <c r="R283" s="4">
+      <c r="R283" s="3"/>
+      <c r="S283" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -13947,17 +15090,21 @@
       <c r="L284" s="1">
         <v>5</v>
       </c>
-      <c r="M284" s="3"/>
+      <c r="M284" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N284" s="3"/>
       <c r="O284" s="3"/>
       <c r="P284" s="3"/>
       <c r="Q284" s="3"/>
-      <c r="R284" s="4">
+      <c r="R284" s="3"/>
+      <c r="S284" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -13994,17 +15141,21 @@
       <c r="L285" s="1">
         <v>5</v>
       </c>
-      <c r="M285" s="3"/>
+      <c r="M285" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N285" s="3"/>
       <c r="O285" s="3"/>
       <c r="P285" s="3"/>
       <c r="Q285" s="3"/>
-      <c r="R285" s="4">
+      <c r="R285" s="3"/>
+      <c r="S285" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -14041,17 +15192,21 @@
       <c r="L286" s="1">
         <v>5</v>
       </c>
-      <c r="M286" s="3"/>
+      <c r="M286" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17285</v>
+      </c>
       <c r="N286" s="3"/>
       <c r="O286" s="3"/>
       <c r="P286" s="3"/>
       <c r="Q286" s="3"/>
-      <c r="R286" s="4">
+      <c r="R286" s="3"/>
+      <c r="S286" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -14088,17 +15243,21 @@
       <c r="L287" s="1">
         <v>5</v>
       </c>
-      <c r="M287" s="3"/>
+      <c r="M287" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17281</v>
+      </c>
       <c r="N287" s="3"/>
       <c r="O287" s="3"/>
       <c r="P287" s="3"/>
       <c r="Q287" s="3"/>
-      <c r="R287" s="4">
+      <c r="R287" s="3"/>
+      <c r="S287" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -14135,17 +15294,21 @@
       <c r="L288" s="1">
         <v>5</v>
       </c>
-      <c r="M288" s="3"/>
+      <c r="M288" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17274</v>
+      </c>
       <c r="N288" s="3"/>
       <c r="O288" s="3"/>
       <c r="P288" s="3"/>
       <c r="Q288" s="3"/>
-      <c r="R288" s="4">
+      <c r="R288" s="3"/>
+      <c r="S288" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -14182,17 +15345,21 @@
       <c r="L289" s="1">
         <v>5</v>
       </c>
-      <c r="M289" s="3"/>
+      <c r="M289" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>16741</v>
+      </c>
       <c r="N289" s="3"/>
       <c r="O289" s="3"/>
       <c r="P289" s="3"/>
       <c r="Q289" s="3"/>
-      <c r="R289" s="4">
+      <c r="R289" s="3"/>
+      <c r="S289" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -14229,17 +15396,21 @@
       <c r="L290" s="1">
         <v>5</v>
       </c>
-      <c r="M290" s="3"/>
+      <c r="M290" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17281</v>
+      </c>
       <c r="N290" s="3"/>
       <c r="O290" s="3"/>
       <c r="P290" s="3"/>
       <c r="Q290" s="3"/>
-      <c r="R290" s="4">
+      <c r="R290" s="3"/>
+      <c r="S290" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -14276,17 +15447,21 @@
       <c r="L291" s="1">
         <v>5</v>
       </c>
-      <c r="M291" s="3"/>
+      <c r="M291" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17248</v>
+      </c>
       <c r="N291" s="3"/>
       <c r="O291" s="3"/>
       <c r="P291" s="3"/>
       <c r="Q291" s="3"/>
-      <c r="R291" s="4">
+      <c r="R291" s="3"/>
+      <c r="S291" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -14323,17 +15498,21 @@
       <c r="L292" s="1">
         <v>5</v>
       </c>
-      <c r="M292" s="3"/>
+      <c r="M292" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17277</v>
+      </c>
       <c r="N292" s="3"/>
       <c r="O292" s="3"/>
       <c r="P292" s="3"/>
       <c r="Q292" s="3"/>
-      <c r="R292" s="4">
+      <c r="R292" s="3"/>
+      <c r="S292" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -14370,17 +15549,21 @@
       <c r="L293" s="1">
         <v>5</v>
       </c>
-      <c r="M293" s="3"/>
+      <c r="M293" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17281</v>
+      </c>
       <c r="N293" s="3"/>
       <c r="O293" s="3"/>
       <c r="P293" s="3"/>
       <c r="Q293" s="3"/>
-      <c r="R293" s="4">
+      <c r="R293" s="3"/>
+      <c r="S293" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -14417,17 +15600,21 @@
       <c r="L294" s="1">
         <v>5</v>
       </c>
-      <c r="M294" s="3"/>
+      <c r="M294" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17281</v>
+      </c>
       <c r="N294" s="3"/>
       <c r="O294" s="3"/>
       <c r="P294" s="3"/>
       <c r="Q294" s="3"/>
-      <c r="R294" s="4">
+      <c r="R294" s="3"/>
+      <c r="S294" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -14464,17 +15651,21 @@
       <c r="L295" s="1">
         <v>5</v>
       </c>
-      <c r="M295" s="3"/>
+      <c r="M295" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17277</v>
+      </c>
       <c r="N295" s="3"/>
       <c r="O295" s="3"/>
       <c r="P295" s="3"/>
       <c r="Q295" s="3"/>
-      <c r="R295" s="4">
+      <c r="R295" s="3"/>
+      <c r="S295" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -14511,17 +15702,21 @@
       <c r="L296" s="1">
         <v>5</v>
       </c>
-      <c r="M296" s="3"/>
+      <c r="M296" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17241</v>
+      </c>
       <c r="N296" s="3"/>
       <c r="O296" s="3"/>
       <c r="P296" s="3"/>
       <c r="Q296" s="3"/>
-      <c r="R296" s="4">
+      <c r="R296" s="3"/>
+      <c r="S296" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -14558,17 +15753,21 @@
       <c r="L297" s="1">
         <v>5</v>
       </c>
-      <c r="M297" s="3"/>
+      <c r="M297" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>16283</v>
+      </c>
       <c r="N297" s="3"/>
       <c r="O297" s="3"/>
       <c r="P297" s="3"/>
       <c r="Q297" s="3"/>
-      <c r="R297" s="4">
+      <c r="R297" s="3"/>
+      <c r="S297" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -14605,17 +15804,21 @@
       <c r="L298" s="1">
         <v>5</v>
       </c>
-      <c r="M298" s="3"/>
+      <c r="M298" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17147</v>
+      </c>
       <c r="N298" s="3"/>
       <c r="O298" s="3"/>
       <c r="P298" s="3"/>
       <c r="Q298" s="3"/>
-      <c r="R298" s="4">
+      <c r="R298" s="3"/>
+      <c r="S298" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -14652,17 +15855,21 @@
       <c r="L299" s="1">
         <v>5</v>
       </c>
-      <c r="M299" s="3"/>
+      <c r="M299" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17092</v>
+      </c>
       <c r="N299" s="3"/>
       <c r="O299" s="3"/>
       <c r="P299" s="3"/>
       <c r="Q299" s="3"/>
-      <c r="R299" s="4">
+      <c r="R299" s="3"/>
+      <c r="S299" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -14699,17 +15906,21 @@
       <c r="L300" s="1">
         <v>5</v>
       </c>
-      <c r="M300" s="3"/>
+      <c r="M300" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17270</v>
+      </c>
       <c r="N300" s="3"/>
       <c r="O300" s="3"/>
       <c r="P300" s="3"/>
       <c r="Q300" s="3"/>
-      <c r="R300" s="4">
+      <c r="R300" s="3"/>
+      <c r="S300" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -14746,12 +15957,16 @@
       <c r="L301" s="1">
         <v>5</v>
       </c>
-      <c r="M301" s="3"/>
+      <c r="M301" s="1">
+        <f>CEILING(1000*LOG(テーブル2[[#This Row],[W]]*テーブル2[[#This Row],[H]],2),1)</f>
+        <v>17248</v>
+      </c>
       <c r="N301" s="3"/>
       <c r="O301" s="3"/>
       <c r="P301" s="3"/>
       <c r="Q301" s="3"/>
-      <c r="R301" s="4">
+      <c r="R301" s="3"/>
+      <c r="S301" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -14759,6 +15974,26 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -14768,7 +16003,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H1048576">
+  <conditionalFormatting sqref="J1:J1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -14778,7 +16013,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
+  <conditionalFormatting sqref="K1:K1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -14788,7 +16023,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -14798,28 +16033,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="E1:E1048576">
     <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -14830,11 +16045,42 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D2425756-D5BD-4AC6-A00C-2BBAFE84B989}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D2425756-D5BD-4AC6-A00C-2BBAFE84B989}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M1:M1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/best_buy/buy.xlsx
+++ b/best_buy/buy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,8 +575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="L211" sqref="L182:L211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16088,8 +16088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -16099,7 +16099,7 @@
         <v>18</v>
       </c>
       <c r="B1">
-        <v>212154</v>
+        <v>318757</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -16117,7 +16117,7 @@
       </c>
       <c r="B3" s="4">
         <f>B1-B2</f>
-        <v>204954</v>
+        <v>311557</v>
       </c>
     </row>
   </sheetData>
